--- a/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>13.55145158545253</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>17.45152257641385</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12.38000791743198</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>101.7915959661367</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.764886963557734</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -441,129 +444,816 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>5.96903680008052</v>
+      </c>
+      <c r="O2">
+        <v>83.75513700408543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="C3">
+        <v>12.37143885414659</v>
+      </c>
+      <c r="D3">
+        <v>15.52643553360371</v>
+      </c>
+      <c r="E3">
+        <v>11.40959992190278</v>
+      </c>
+      <c r="F3">
+        <v>90.99187832403923</v>
+      </c>
+      <c r="G3">
+        <v>1.84176568517376</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>5.748753508097515</v>
+      </c>
+      <c r="O3">
+        <v>74.80820972003842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="C4">
+        <v>11.74101418101212</v>
+      </c>
+      <c r="D4">
+        <v>14.56837654745559</v>
+      </c>
+      <c r="E4">
+        <v>10.90177638546641</v>
+      </c>
+      <c r="F4">
+        <v>84.98263705666976</v>
+      </c>
+      <c r="G4">
+        <v>1.882552311125411</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>5.647696435473755</v>
+      </c>
+      <c r="O4">
+        <v>69.82799860781849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="C5">
+        <v>11.49868832174972</v>
+      </c>
+      <c r="D5">
+        <v>14.20083875656369</v>
+      </c>
+      <c r="E5">
+        <v>10.70890343340703</v>
+      </c>
+      <c r="F5">
+        <v>82.61620959648511</v>
+      </c>
+      <c r="G5">
+        <v>1.898250585571352</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5.612295217270303</v>
+      </c>
+      <c r="O5">
+        <v>67.86609327053191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="C6">
+        <v>11.45916758320743</v>
+      </c>
+      <c r="D6">
+        <v>14.14065524288775</v>
+      </c>
+      <c r="E6">
+        <v>10.67758129128024</v>
+      </c>
+      <c r="F6">
+        <v>82.22690447049565</v>
+      </c>
+      <c r="G6">
+        <v>1.90081419204607</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>5.606713733511095</v>
+      </c>
+      <c r="O6">
+        <v>67.54328902660096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="C7">
+        <v>11.7376949101182</v>
+      </c>
+      <c r="D7">
+        <v>14.56335864862447</v>
+      </c>
+      <c r="E7">
+        <v>10.8991252550111</v>
+      </c>
+      <c r="F7">
+        <v>84.95045325011777</v>
+      </c>
+      <c r="G7">
+        <v>1.882767153177476</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>5.647198097576549</v>
+      </c>
+      <c r="O7">
+        <v>69.80131949774571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="C8">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D8">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E8">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F8">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G8">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O8">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="C9">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D9">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E9">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F9">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G9">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O9">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="C10">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D10">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E10">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F10">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G10">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O10">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="C11">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D11">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E11">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F11">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G11">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O11">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="C12">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D12">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E12">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F12">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G12">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O12">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="C13">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D13">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E13">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F13">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G13">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O13">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="C14">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D14">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E14">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F14">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G14">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O14">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="C15">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D15">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E15">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F15">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G15">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O15">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D16">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E16">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F16">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G16">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O16">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D17">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E17">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F17">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G17">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O17">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D18">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E18">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F18">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G18">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O18">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D19">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E19">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F19">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G19">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O19">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D20">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E20">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F20">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G20">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O20">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D21">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E21">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F21">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G21">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O21">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D22">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E22">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F22">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G22">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O22">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D23">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E23">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F23">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G23">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O23">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D24">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E24">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F24">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G24">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O24">
+        <v>80.50937473817619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>13.11698769213334</v>
+      </c>
+      <c r="D25">
+        <v>16.75153983173583</v>
+      </c>
+      <c r="E25">
+        <v>12.0200061282875</v>
+      </c>
+      <c r="F25">
+        <v>97.8734005880099</v>
+      </c>
+      <c r="G25">
+        <v>1.793334260373965</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>5.883524956420516</v>
+      </c>
+      <c r="O25">
+        <v>80.50937473817619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
@@ -420,840 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>13.55145158545253</v>
+        <v>5.794372392433898</v>
       </c>
       <c r="D2">
-        <v>17.45152257641385</v>
+        <v>4.396569940250398</v>
       </c>
       <c r="E2">
-        <v>12.38000791743198</v>
+        <v>7.288150497721271</v>
       </c>
       <c r="F2">
-        <v>101.7915959661367</v>
+        <v>28.2871907819322</v>
       </c>
       <c r="G2">
-        <v>1.764886963557734</v>
+        <v>35.89773280939102</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.21617911689603</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>21.26482614242919</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.904632346764216</v>
+      </c>
+      <c r="K2">
+        <v>20.31469232651154</v>
       </c>
       <c r="L2">
-        <v>5.96903680008052</v>
+        <v>5.751749702625333</v>
+      </c>
+      <c r="M2">
+        <v>16.01141671133885</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>83.75513700408543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>12.37143885414659</v>
+        <v>5.585566686659034</v>
       </c>
       <c r="D3">
-        <v>15.52643553360371</v>
+        <v>4.246997821230957</v>
       </c>
       <c r="E3">
-        <v>11.40959992190278</v>
+        <v>7.266196970700688</v>
       </c>
       <c r="F3">
-        <v>90.99187832403923</v>
+        <v>28.16248396661329</v>
       </c>
       <c r="G3">
-        <v>1.84176568517376</v>
+        <v>35.66201491375242</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.31513187347647</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>21.25397178920186</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.966460571775282</v>
+      </c>
+      <c r="K3">
+        <v>18.99618063235397</v>
       </c>
       <c r="L3">
-        <v>5.748753508097515</v>
+        <v>5.797412449949245</v>
+      </c>
+      <c r="M3">
+        <v>15.23489979943327</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>74.80820972003842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>11.74101418101212</v>
+        <v>5.455270303465771</v>
       </c>
       <c r="D4">
-        <v>14.56837654745559</v>
+        <v>4.153293241995979</v>
       </c>
       <c r="E4">
-        <v>10.90177638546641</v>
+        <v>7.255333406826059</v>
       </c>
       <c r="F4">
-        <v>84.98263705666976</v>
+        <v>28.11773900291798</v>
       </c>
       <c r="G4">
-        <v>1.882552311125411</v>
+        <v>35.56864653919662</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.38678093541169</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>21.27008229764229</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.005921648503215</v>
+      </c>
+      <c r="K4">
+        <v>18.17021043197237</v>
       </c>
       <c r="L4">
-        <v>5.647696435473755</v>
+        <v>5.826766520215374</v>
+      </c>
+      <c r="M4">
+        <v>14.74311458153875</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>69.82799860781849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>11.49868832174972</v>
+        <v>5.401714765281485</v>
       </c>
       <c r="D5">
-        <v>14.20083875656369</v>
+        <v>4.114679243251336</v>
       </c>
       <c r="E5">
-        <v>10.70890343340703</v>
+        <v>7.251553923366269</v>
       </c>
       <c r="F5">
-        <v>82.61620959648511</v>
+        <v>28.10717352972609</v>
       </c>
       <c r="G5">
-        <v>1.898250585571352</v>
+        <v>35.54293550070373</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.41858558718123</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.2821130247902</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.022382079394481</v>
+      </c>
+      <c r="K5">
+        <v>17.82381174522955</v>
       </c>
       <c r="L5">
-        <v>5.612295217270303</v>
+        <v>5.839061130156764</v>
+      </c>
+      <c r="M5">
+        <v>14.53915418508359</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>67.86609327053191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>11.45916758320743</v>
+        <v>5.392796289677745</v>
       </c>
       <c r="D6">
-        <v>14.14065524288775</v>
+        <v>4.108242813623741</v>
       </c>
       <c r="E6">
-        <v>10.67758129128024</v>
+        <v>7.250965147411742</v>
       </c>
       <c r="F6">
-        <v>82.22690447049565</v>
+        <v>28.10587236878527</v>
       </c>
       <c r="G6">
-        <v>1.90081419204607</v>
+        <v>35.5393939475309</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.42402047382049</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.28443319689181</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.025138342551503</v>
+      </c>
+      <c r="K6">
+        <v>17.76570367484324</v>
       </c>
       <c r="L6">
-        <v>5.606713733511095</v>
+        <v>5.841122770526204</v>
+      </c>
+      <c r="M6">
+        <v>14.50507922461162</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>67.54328902660096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>11.7376949101182</v>
+        <v>5.454549798796663</v>
       </c>
       <c r="D7">
-        <v>14.56335864862447</v>
+        <v>4.152774158260488</v>
       </c>
       <c r="E7">
-        <v>10.8991252550111</v>
+        <v>7.255279827339193</v>
       </c>
       <c r="F7">
-        <v>84.95045325011777</v>
+        <v>28.1175659115068</v>
       </c>
       <c r="G7">
-        <v>1.882767153177476</v>
+        <v>35.56825062064217</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.38719947685057</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>21.27022276319578</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.006142098209803</v>
+      </c>
+      <c r="K7">
+        <v>18.16557833851581</v>
       </c>
       <c r="L7">
-        <v>5.647198097576549</v>
+        <v>5.826930981068855</v>
+      </c>
+      <c r="M7">
+        <v>14.74037797261351</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>69.80131949774571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>13.11698769213334</v>
+        <v>5.722847381719633</v>
       </c>
       <c r="D8">
-        <v>16.75153983173583</v>
+        <v>4.345407890643973</v>
       </c>
       <c r="E8">
-        <v>12.0200061282875</v>
+        <v>7.280031788064554</v>
       </c>
       <c r="F8">
-        <v>97.8734005880099</v>
+        <v>28.23738805846955</v>
       </c>
       <c r="G8">
-        <v>1.793334260373965</v>
+        <v>35.80545740368283</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.24795594802559</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>21.2561992057958</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.925641533018986</v>
+      </c>
+      <c r="K8">
+        <v>19.84776007695018</v>
       </c>
       <c r="L8">
-        <v>5.883524956420516</v>
+        <v>5.76722173919536</v>
+      </c>
+      <c r="M8">
+        <v>15.74690581876913</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>13.11698769213334</v>
+        <v>6.229865271955465</v>
       </c>
       <c r="D9">
-        <v>16.75153983173583</v>
+        <v>4.706810135795532</v>
       </c>
       <c r="E9">
-        <v>12.0200061282875</v>
+        <v>7.349791660608426</v>
       </c>
       <c r="F9">
-        <v>97.8734005880099</v>
+        <v>28.73933051707872</v>
       </c>
       <c r="G9">
-        <v>1.793334260373965</v>
+        <v>36.70243684486765</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.06760901294083</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>21.42108789069817</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.779534080573328</v>
+      </c>
+      <c r="K9">
+        <v>23.03297169694902</v>
       </c>
       <c r="L9">
-        <v>5.883524956420516</v>
+        <v>5.660517372003138</v>
+      </c>
+      <c r="M9">
+        <v>17.5940539519017</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>13.11698769213334</v>
+        <v>6.5878725402315</v>
       </c>
       <c r="D10">
-        <v>16.75153983173583</v>
+        <v>4.960659908194082</v>
       </c>
       <c r="E10">
-        <v>12.0200061282875</v>
+        <v>7.414632451635084</v>
       </c>
       <c r="F10">
-        <v>97.8734005880099</v>
+        <v>29.28983412113974</v>
       </c>
       <c r="G10">
-        <v>1.793334260373965</v>
+        <v>37.65534980911464</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.00085688631497</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>21.67540716465831</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.679169141475025</v>
+      </c>
+      <c r="K10">
+        <v>25.1457694834683</v>
       </c>
       <c r="L10">
-        <v>5.883524956420516</v>
+        <v>5.588365081733303</v>
+      </c>
+      <c r="M10">
+        <v>18.86622997808039</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>13.11698769213334</v>
+        <v>6.747143446491401</v>
       </c>
       <c r="D11">
-        <v>16.75153983173583</v>
+        <v>5.073347954537112</v>
       </c>
       <c r="E11">
-        <v>12.0200061282875</v>
+        <v>7.44722549992879</v>
       </c>
       <c r="F11">
-        <v>97.8734005880099</v>
+        <v>29.58356299194779</v>
       </c>
       <c r="G11">
-        <v>1.793334260373965</v>
+        <v>38.15849301468626</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.98693588662339</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>21.8233858302737</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.634987825617106</v>
+      </c>
+      <c r="K11">
+        <v>26.05911780562762</v>
       </c>
       <c r="L11">
-        <v>5.883524956420516</v>
+        <v>5.556879042975676</v>
+      </c>
+      <c r="M11">
+        <v>19.42553703717086</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>13.11698769213334</v>
+        <v>6.806911547208873</v>
       </c>
       <c r="D12">
-        <v>16.75153983173583</v>
+        <v>5.115603412433101</v>
       </c>
       <c r="E12">
-        <v>12.0200061282875</v>
+        <v>7.460025196363307</v>
       </c>
       <c r="F12">
-        <v>97.8734005880099</v>
+        <v>29.70131655180229</v>
       </c>
       <c r="G12">
-        <v>1.793334260373965</v>
+        <v>38.35946706686959</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.98422091065898</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>21.88433710040302</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.61846679958886</v>
+      </c>
+      <c r="K12">
+        <v>26.39824358694137</v>
       </c>
       <c r="L12">
-        <v>5.883524956420516</v>
+        <v>5.545147009677984</v>
+      </c>
+      <c r="M12">
+        <v>19.63449255498865</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>13.11698769213334</v>
+        <v>6.794064002005696</v>
       </c>
       <c r="D13">
-        <v>16.75153983173583</v>
+        <v>5.106521696185876</v>
       </c>
       <c r="E13">
-        <v>12.0200061282875</v>
+        <v>7.457248009137814</v>
       </c>
       <c r="F13">
-        <v>97.8734005880099</v>
+        <v>29.67566136225901</v>
       </c>
       <c r="G13">
-        <v>1.793334260373965</v>
+        <v>38.31571266567665</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.98468876385393</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>21.87098724970013</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.622015622022182</v>
+      </c>
+      <c r="K13">
+        <v>26.32550435983156</v>
       </c>
       <c r="L13">
-        <v>5.883524956420516</v>
+        <v>5.547665233135842</v>
+      </c>
+      <c r="M13">
+        <v>19.58961718586142</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>13.11698769213334</v>
+        <v>6.752071650298556</v>
       </c>
       <c r="D14">
-        <v>16.75153983173583</v>
+        <v>5.076832769582032</v>
       </c>
       <c r="E14">
-        <v>12.0200061282875</v>
+        <v>7.448269299660677</v>
       </c>
       <c r="F14">
-        <v>97.8734005880099</v>
+        <v>29.59311820288931</v>
       </c>
       <c r="G14">
-        <v>1.793334260373965</v>
+        <v>38.17481559453061</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.98666015182359</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>21.82830027398177</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.633624447210515</v>
+      </c>
+      <c r="K14">
+        <v>26.08715218114932</v>
       </c>
       <c r="L14">
-        <v>5.883524956420516</v>
+        <v>5.555910018825651</v>
+      </c>
+      <c r="M14">
+        <v>19.44278509225776</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>13.11698769213334</v>
+        <v>6.726278514916649</v>
       </c>
       <c r="D15">
-        <v>16.75153983173583</v>
+        <v>5.058592738421383</v>
       </c>
       <c r="E15">
-        <v>12.0200061282875</v>
+        <v>7.442829520403317</v>
       </c>
       <c r="F15">
-        <v>97.8734005880099</v>
+        <v>29.54341656272176</v>
       </c>
       <c r="G15">
-        <v>1.793334260373965</v>
+        <v>38.08988448157044</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.98820649132977</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>21.8028013797307</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.640762392242366</v>
+      </c>
+      <c r="K15">
+        <v>25.94028092048841</v>
       </c>
       <c r="L15">
-        <v>5.883524956420516</v>
+        <v>5.56098503605766</v>
+      </c>
+      <c r="M15">
+        <v>19.35247501170633</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>13.11698769213334</v>
+        <v>6.577389019298343</v>
       </c>
       <c r="D16">
-        <v>16.75153983173583</v>
+        <v>4.953237878316044</v>
       </c>
       <c r="E16">
-        <v>12.0200061282875</v>
+        <v>7.412565754332889</v>
       </c>
       <c r="F16">
-        <v>97.8734005880099</v>
+        <v>29.27153526838214</v>
       </c>
       <c r="G16">
-        <v>1.793334260373965</v>
+        <v>37.6239071666317</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.00211374531458</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>21.66640942525532</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.682085948971466</v>
+      </c>
+      <c r="K16">
+        <v>25.0851296678612</v>
       </c>
       <c r="L16">
-        <v>5.883524956420516</v>
+        <v>5.590449561984174</v>
+      </c>
+      <c r="M16">
+        <v>18.82928244498516</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>13.11698769213334</v>
+        <v>6.485108629800129</v>
       </c>
       <c r="D17">
-        <v>16.75153983173583</v>
+        <v>4.887878798878402</v>
       </c>
       <c r="E17">
-        <v>12.0200061282875</v>
+        <v>7.394801482212848</v>
       </c>
       <c r="F17">
-        <v>97.8734005880099</v>
+        <v>29.11605044896909</v>
       </c>
       <c r="G17">
-        <v>1.793334260373965</v>
+        <v>37.3562003109951</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.01499072081865</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>21.5912012860959</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.707812512912742</v>
+      </c>
+      <c r="K17">
+        <v>24.54837649691944</v>
       </c>
       <c r="L17">
-        <v>5.883524956420516</v>
+        <v>5.608866550748501</v>
+      </c>
+      <c r="M17">
+        <v>18.50330501128488</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>13.11698769213334</v>
+        <v>6.431694866671083</v>
       </c>
       <c r="D18">
-        <v>16.75153983173583</v>
+        <v>4.850024077416642</v>
       </c>
       <c r="E18">
-        <v>12.0200061282875</v>
+        <v>7.384874658741443</v>
       </c>
       <c r="F18">
-        <v>97.8734005880099</v>
+        <v>29.03067830162511</v>
       </c>
       <c r="G18">
-        <v>1.793334260373965</v>
+        <v>37.20875548413117</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.0239330010929</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>21.55096650473251</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.722748755431769</v>
+      </c>
+      <c r="K18">
+        <v>24.23514532988874</v>
       </c>
       <c r="L18">
-        <v>5.883524956420516</v>
+        <v>5.619585366524989</v>
+      </c>
+      <c r="M18">
+        <v>18.31398562334629</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>13.11698769213334</v>
+        <v>6.413553066416959</v>
       </c>
       <c r="D19">
-        <v>16.75153983173583</v>
+        <v>4.837162698742299</v>
       </c>
       <c r="E19">
-        <v>12.0200061282875</v>
+        <v>7.381563177809363</v>
       </c>
       <c r="F19">
-        <v>97.8734005880099</v>
+        <v>29.00246060432569</v>
       </c>
       <c r="G19">
-        <v>1.793334260373965</v>
+        <v>37.15994173459062</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.02721879074815</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>21.53785456698837</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.727829867699635</v>
+      </c>
+      <c r="K19">
+        <v>24.12831305737431</v>
       </c>
       <c r="L19">
-        <v>5.883524956420516</v>
+        <v>5.623236224074637</v>
+      </c>
+      <c r="M19">
+        <v>18.24957369399566</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>13.11698769213334</v>
+        <v>6.49496709162754</v>
       </c>
       <c r="D20">
-        <v>16.75153983173583</v>
+        <v>4.894863621235929</v>
       </c>
       <c r="E20">
-        <v>12.0200061282875</v>
+        <v>7.396662345420155</v>
       </c>
       <c r="F20">
-        <v>97.8734005880099</v>
+        <v>29.1321798369848</v>
       </c>
       <c r="G20">
-        <v>1.793334260373965</v>
+        <v>37.38401882197675</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.01345963845749</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>21.59889247925</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.705059509639058</v>
+      </c>
+      <c r="K20">
+        <v>24.6059801112427</v>
       </c>
       <c r="L20">
-        <v>5.883524956420516</v>
+        <v>5.606893014191285</v>
+      </c>
+      <c r="M20">
+        <v>18.53819527153347</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>13.11698769213334</v>
+        <v>6.764420785398953</v>
       </c>
       <c r="D21">
-        <v>16.75153983173583</v>
+        <v>5.08556454960746</v>
       </c>
       <c r="E21">
-        <v>12.0200061282875</v>
+        <v>7.450894050379762</v>
       </c>
       <c r="F21">
-        <v>97.8734005880099</v>
+        <v>29.61718371310911</v>
       </c>
       <c r="G21">
-        <v>1.793334260373965</v>
+        <v>38.21591374557354</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.98601014407589</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>21.84070292516833</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.630208988990941</v>
+      </c>
+      <c r="K21">
+        <v>26.15734382178188</v>
       </c>
       <c r="L21">
-        <v>5.883524956420516</v>
+        <v>5.553483149017232</v>
+      </c>
+      <c r="M21">
+        <v>19.4859906478376</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>13.11698769213334</v>
+        <v>6.937343414685963</v>
       </c>
       <c r="D22">
-        <v>16.75153983173583</v>
+        <v>5.207763600382504</v>
       </c>
       <c r="E22">
-        <v>12.0200061282875</v>
+        <v>7.48900989661883</v>
       </c>
       <c r="F22">
-        <v>97.8734005880099</v>
+        <v>29.97232659773346</v>
       </c>
       <c r="G22">
-        <v>1.793334260373965</v>
+        <v>38.82066459359891</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.98306818618474</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>22.02751311648984</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.582509745006496</v>
+      </c>
+      <c r="K22">
+        <v>27.13203349212541</v>
       </c>
       <c r="L22">
-        <v>5.883524956420516</v>
+        <v>5.519689821049548</v>
+      </c>
+      <c r="M22">
+        <v>20.08885825896086</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>13.11698769213334</v>
+        <v>6.845349930748991</v>
       </c>
       <c r="D23">
-        <v>16.75153983173583</v>
+        <v>5.142770525899103</v>
       </c>
       <c r="E23">
-        <v>12.0200061282875</v>
+        <v>7.468418057666922</v>
       </c>
       <c r="F23">
-        <v>97.8734005880099</v>
+        <v>29.77919154541001</v>
       </c>
       <c r="G23">
-        <v>1.793334260373965</v>
+        <v>38.49217633917256</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.98320011407375</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>21.92508687580494</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.607856941358811</v>
+      </c>
+      <c r="K23">
+        <v>26.61536641618769</v>
       </c>
       <c r="L23">
-        <v>5.883524956420516</v>
+        <v>5.537624455610885</v>
+      </c>
+      <c r="M23">
+        <v>19.7686232015516</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>13.11698769213334</v>
+        <v>6.490511201797468</v>
       </c>
       <c r="D24">
-        <v>16.75153983173583</v>
+        <v>4.891706650544095</v>
       </c>
       <c r="E24">
-        <v>12.0200061282875</v>
+        <v>7.395820158955714</v>
       </c>
       <c r="F24">
-        <v>97.8734005880099</v>
+        <v>29.12487524768493</v>
       </c>
       <c r="G24">
-        <v>1.793334260373965</v>
+        <v>37.37142197378475</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.01414706113784</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>21.59540595659488</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.706303688399092</v>
+      </c>
+      <c r="K24">
+        <v>24.57995199392973</v>
       </c>
       <c r="L24">
-        <v>5.883524956420516</v>
+        <v>5.60778484305682</v>
+      </c>
+      <c r="M24">
+        <v>18.52242733191834</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>13.11698769213334</v>
+        <v>6.095072719802727</v>
       </c>
       <c r="D25">
-        <v>16.75153983173583</v>
+        <v>4.61098650878443</v>
       </c>
       <c r="E25">
-        <v>12.0200061282875</v>
+        <v>7.328581128646816</v>
       </c>
       <c r="F25">
-        <v>97.8734005880099</v>
+        <v>28.57295827014957</v>
       </c>
       <c r="G25">
-        <v>1.793334260373965</v>
+        <v>36.41024987497403</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.10555325904711</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>21.35423784931036</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.817821029694938</v>
+      </c>
+      <c r="K25">
+        <v>22.21172337791332</v>
       </c>
       <c r="L25">
-        <v>5.883524956420516</v>
+        <v>5.688281155267552</v>
+      </c>
+      <c r="M25">
+        <v>17.10883054593018</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>80.50937473817619</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.794372392433898</v>
+        <v>8.296760368086368</v>
       </c>
       <c r="D2">
-        <v>4.396569940250398</v>
+        <v>6.782595929419921</v>
       </c>
       <c r="E2">
-        <v>7.288150497721271</v>
+        <v>12.55048805425085</v>
       </c>
       <c r="F2">
-        <v>28.2871907819322</v>
+        <v>43.75957632028918</v>
       </c>
       <c r="G2">
-        <v>35.89773280939102</v>
+        <v>53.0339579370205</v>
       </c>
       <c r="H2">
-        <v>12.21617911689603</v>
+        <v>20.45620539983744</v>
       </c>
       <c r="I2">
-        <v>21.26482614242919</v>
+        <v>33.79970058325425</v>
       </c>
       <c r="J2">
-        <v>5.904632346764216</v>
+        <v>10.46894284426493</v>
       </c>
       <c r="K2">
-        <v>20.31469232651154</v>
+        <v>18.76607139671875</v>
       </c>
       <c r="L2">
-        <v>5.751749702625333</v>
+        <v>10.21345856491948</v>
       </c>
       <c r="M2">
-        <v>16.01141671133885</v>
+        <v>19.97887698724005</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.585566686659034</v>
+        <v>8.269980275549122</v>
       </c>
       <c r="D3">
-        <v>4.246997821230957</v>
+        <v>6.76033334489534</v>
       </c>
       <c r="E3">
-        <v>7.266196970700688</v>
+        <v>12.56913595964794</v>
       </c>
       <c r="F3">
-        <v>28.16248396661329</v>
+        <v>43.91806548420374</v>
       </c>
       <c r="G3">
-        <v>35.66201491375242</v>
+        <v>53.25536287100959</v>
       </c>
       <c r="H3">
-        <v>12.31513187347647</v>
+        <v>20.54094568574256</v>
       </c>
       <c r="I3">
-        <v>21.25397178920186</v>
+        <v>33.92898532588785</v>
       </c>
       <c r="J3">
-        <v>5.966460571775282</v>
+        <v>10.4943432626684</v>
       </c>
       <c r="K3">
-        <v>18.99618063235397</v>
+        <v>18.39768514395682</v>
       </c>
       <c r="L3">
-        <v>5.797412449949245</v>
+        <v>10.23423291124247</v>
       </c>
       <c r="M3">
-        <v>15.23489979943327</v>
+        <v>19.83964961765781</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.455270303465771</v>
+        <v>8.25442024269609</v>
       </c>
       <c r="D4">
-        <v>4.153293241995979</v>
+        <v>6.746998779562229</v>
       </c>
       <c r="E4">
-        <v>7.255333406826059</v>
+        <v>12.58187083143062</v>
       </c>
       <c r="F4">
-        <v>28.11773900291798</v>
+        <v>44.02634018647267</v>
       </c>
       <c r="G4">
-        <v>35.56864653919662</v>
+        <v>53.40768847762186</v>
       </c>
       <c r="H4">
-        <v>12.38678093541169</v>
+        <v>20.59698601571004</v>
       </c>
       <c r="I4">
-        <v>21.27008229764229</v>
+        <v>34.01623403274895</v>
       </c>
       <c r="J4">
-        <v>6.005921648503215</v>
+        <v>10.5108248446536</v>
       </c>
       <c r="K4">
-        <v>18.17021043197237</v>
+        <v>18.17011309525248</v>
       </c>
       <c r="L4">
-        <v>5.826766520215374</v>
+        <v>10.24775194412058</v>
       </c>
       <c r="M4">
-        <v>14.74311458153875</v>
+        <v>19.75620224175286</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.401714765281485</v>
+        <v>8.248305204450354</v>
       </c>
       <c r="D5">
-        <v>4.114679243251336</v>
+        <v>6.741651479197584</v>
       </c>
       <c r="E5">
-        <v>7.251553923366269</v>
+        <v>12.58738398285493</v>
       </c>
       <c r="F5">
-        <v>28.10717352972609</v>
+        <v>44.07320997382372</v>
       </c>
       <c r="G5">
-        <v>35.54293550070373</v>
+        <v>53.47386028299637</v>
       </c>
       <c r="H5">
-        <v>12.41858558718123</v>
+        <v>20.62082989921933</v>
       </c>
       <c r="I5">
-        <v>21.2821130247902</v>
+        <v>34.05376134042262</v>
       </c>
       <c r="J5">
-        <v>6.022382079394481</v>
+        <v>10.5177645036834</v>
       </c>
       <c r="K5">
-        <v>17.82381174522955</v>
+        <v>18.07714636376119</v>
       </c>
       <c r="L5">
-        <v>5.839061130156764</v>
+        <v>10.2534535524135</v>
       </c>
       <c r="M5">
-        <v>14.53915418508359</v>
+        <v>19.72273524048201</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.392796289677745</v>
+        <v>8.247303550830008</v>
       </c>
       <c r="D6">
-        <v>4.108242813623741</v>
+        <v>6.740768867910211</v>
       </c>
       <c r="E6">
-        <v>7.250965147411742</v>
+        <v>12.58831899485862</v>
       </c>
       <c r="F6">
-        <v>28.10587236878527</v>
+        <v>44.08115829511635</v>
       </c>
       <c r="G6">
-        <v>35.5393939475309</v>
+        <v>53.48509492310401</v>
       </c>
       <c r="H6">
-        <v>12.42402047382049</v>
+        <v>20.62484994274273</v>
       </c>
       <c r="I6">
-        <v>21.28443319689181</v>
+        <v>34.0601117062758</v>
       </c>
       <c r="J6">
-        <v>6.025138342551503</v>
+        <v>10.51893033156152</v>
       </c>
       <c r="K6">
-        <v>17.76570367484324</v>
+        <v>18.06169897151653</v>
       </c>
       <c r="L6">
-        <v>5.841122770526204</v>
+        <v>10.25441194105718</v>
       </c>
       <c r="M6">
-        <v>14.50507922461162</v>
+        <v>19.71721133141281</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.454549798796663</v>
+        <v>8.254336854059835</v>
       </c>
       <c r="D7">
-        <v>4.152774158260488</v>
+        <v>6.746926309960265</v>
       </c>
       <c r="E7">
-        <v>7.255279827339193</v>
+        <v>12.58194387290867</v>
       </c>
       <c r="F7">
-        <v>28.1175659115068</v>
+        <v>44.02696117921822</v>
       </c>
       <c r="G7">
-        <v>35.56825062064217</v>
+        <v>53.40856433053771</v>
       </c>
       <c r="H7">
-        <v>12.38719947685057</v>
+        <v>20.59730350701605</v>
       </c>
       <c r="I7">
-        <v>21.27022276319578</v>
+        <v>34.01673215903116</v>
       </c>
       <c r="J7">
-        <v>6.006142098209803</v>
+        <v>10.51091753049581</v>
       </c>
       <c r="K7">
-        <v>18.16557833851581</v>
+        <v>18.16886008347469</v>
       </c>
       <c r="L7">
-        <v>5.826930981068855</v>
+        <v>10.2478280579401</v>
       </c>
       <c r="M7">
-        <v>14.74037797261351</v>
+        <v>19.75574868031143</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.722847381719633</v>
+        <v>8.287345616998595</v>
       </c>
       <c r="D8">
-        <v>4.345407890643973</v>
+        <v>6.774851808928221</v>
       </c>
       <c r="E8">
-        <v>7.280031788064554</v>
+        <v>12.55665143802357</v>
       </c>
       <c r="F8">
-        <v>28.23738805846955</v>
+        <v>43.81194267999603</v>
       </c>
       <c r="G8">
-        <v>35.80545740368283</v>
+        <v>53.10688548157946</v>
       </c>
       <c r="H8">
-        <v>12.24795594802559</v>
+        <v>20.48459095611764</v>
       </c>
       <c r="I8">
-        <v>21.2561992057958</v>
+        <v>33.84264178143119</v>
       </c>
       <c r="J8">
-        <v>5.925641533018986</v>
+        <v>10.47751744928301</v>
       </c>
       <c r="K8">
-        <v>19.84776007695018</v>
+        <v>18.63940837106576</v>
       </c>
       <c r="L8">
-        <v>5.76722173919536</v>
+        <v>10.22046339868336</v>
       </c>
       <c r="M8">
-        <v>15.74690581876913</v>
+        <v>19.9304639607819</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.229865271955465</v>
+        <v>8.358910816056033</v>
       </c>
       <c r="D9">
-        <v>4.706810135795532</v>
+        <v>6.832159958100127</v>
       </c>
       <c r="E9">
-        <v>7.349791660608426</v>
+        <v>12.51722817977225</v>
       </c>
       <c r="F9">
-        <v>28.73933051707872</v>
+        <v>43.47768021475938</v>
       </c>
       <c r="G9">
-        <v>36.70243684486765</v>
+        <v>52.64621612165902</v>
       </c>
       <c r="H9">
-        <v>12.06760901294083</v>
+        <v>20.29542975427037</v>
       </c>
       <c r="I9">
-        <v>21.42108789069817</v>
+        <v>33.56391994483657</v>
       </c>
       <c r="J9">
-        <v>5.779534080573328</v>
+        <v>10.41902043085255</v>
       </c>
       <c r="K9">
-        <v>23.03297169694902</v>
+        <v>19.54618217353678</v>
       </c>
       <c r="L9">
-        <v>5.660517372003138</v>
+        <v>10.17283657850683</v>
       </c>
       <c r="M9">
-        <v>17.5940539519017</v>
+        <v>20.28809001822064</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.5878725402315</v>
+        <v>8.4154174721325</v>
       </c>
       <c r="D10">
-        <v>4.960659908194082</v>
+        <v>6.875667591541499</v>
       </c>
       <c r="E10">
-        <v>7.414632451635084</v>
+        <v>12.49443911907041</v>
       </c>
       <c r="F10">
-        <v>29.28983412113974</v>
+        <v>43.28591905389494</v>
       </c>
       <c r="G10">
-        <v>37.65534980911464</v>
+        <v>52.38881911095737</v>
       </c>
       <c r="H10">
-        <v>12.00085688631497</v>
+        <v>20.17595558395969</v>
       </c>
       <c r="I10">
-        <v>21.67540716465831</v>
+        <v>33.39767728172136</v>
       </c>
       <c r="J10">
-        <v>5.679169141475025</v>
+        <v>10.38027320648134</v>
       </c>
       <c r="K10">
-        <v>25.1457694834683</v>
+        <v>20.19624846464786</v>
       </c>
       <c r="L10">
-        <v>5.588365081733303</v>
+        <v>10.14149264989818</v>
       </c>
       <c r="M10">
-        <v>18.86622997808039</v>
+        <v>20.55838528157347</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.747143446491401</v>
+        <v>8.441922424693152</v>
       </c>
       <c r="D11">
-        <v>5.073347954537112</v>
+        <v>6.895732279460462</v>
       </c>
       <c r="E11">
-        <v>7.44722549992879</v>
+        <v>12.48540654301863</v>
       </c>
       <c r="F11">
-        <v>29.58356299194779</v>
+        <v>43.21047962703716</v>
       </c>
       <c r="G11">
-        <v>38.15849301468626</v>
+        <v>52.28957508316002</v>
       </c>
       <c r="H11">
-        <v>11.98693588662339</v>
+        <v>20.12585516232956</v>
       </c>
       <c r="I11">
-        <v>21.8233858302737</v>
+        <v>33.33048500361585</v>
       </c>
       <c r="J11">
-        <v>5.634987825617106</v>
+        <v>10.36355684615439</v>
       </c>
       <c r="K11">
-        <v>26.05911780562762</v>
+        <v>20.48721995537754</v>
       </c>
       <c r="L11">
-        <v>5.556879042975676</v>
+        <v>10.12801878889649</v>
       </c>
       <c r="M11">
-        <v>19.42553703717086</v>
+        <v>20.68263750976348</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.806911547208873</v>
+        <v>8.452069314304664</v>
       </c>
       <c r="D12">
-        <v>5.115603412433101</v>
+        <v>6.903366599531598</v>
       </c>
       <c r="E12">
-        <v>7.460025196363307</v>
+        <v>12.48217747707006</v>
       </c>
       <c r="F12">
-        <v>29.70131655180229</v>
+        <v>43.18361716979923</v>
       </c>
       <c r="G12">
-        <v>38.35946706686959</v>
+        <v>52.25457982620726</v>
       </c>
       <c r="H12">
-        <v>11.98422091065898</v>
+        <v>20.10749593640582</v>
       </c>
       <c r="I12">
-        <v>21.88433710040302</v>
+        <v>33.30625907865601</v>
       </c>
       <c r="J12">
-        <v>5.61846679958886</v>
+        <v>10.35735705325512</v>
       </c>
       <c r="K12">
-        <v>26.39824358694137</v>
+        <v>20.59662353019956</v>
       </c>
       <c r="L12">
-        <v>5.545147009677984</v>
+        <v>10.12302891012766</v>
       </c>
       <c r="M12">
-        <v>19.63449255498865</v>
+        <v>20.72984455910571</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.794064002005696</v>
+        <v>8.449879186600644</v>
       </c>
       <c r="D13">
-        <v>5.106521696185876</v>
+        <v>6.901720847368265</v>
       </c>
       <c r="E13">
-        <v>7.457248009137814</v>
+        <v>12.48286441078975</v>
       </c>
       <c r="F13">
-        <v>29.67566136225901</v>
+        <v>43.1893265210166</v>
       </c>
       <c r="G13">
-        <v>38.31571266567665</v>
+        <v>52.26200134720166</v>
       </c>
       <c r="H13">
-        <v>11.98468876385393</v>
+        <v>20.11142264585393</v>
       </c>
       <c r="I13">
-        <v>21.87098724970013</v>
+        <v>33.31142228910267</v>
       </c>
       <c r="J13">
-        <v>5.622015622022182</v>
+        <v>10.35868650133289</v>
       </c>
       <c r="K13">
-        <v>26.32550435983156</v>
+        <v>20.57309775142364</v>
       </c>
       <c r="L13">
-        <v>5.547665233135842</v>
+        <v>10.12409857881717</v>
       </c>
       <c r="M13">
-        <v>19.58961718586142</v>
+        <v>20.71967125186666</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.752071650298556</v>
+        <v>8.442755038996879</v>
       </c>
       <c r="D14">
-        <v>5.076832769582032</v>
+        <v>6.896359650099545</v>
       </c>
       <c r="E14">
-        <v>7.448269299660677</v>
+        <v>12.48513705327086</v>
       </c>
       <c r="F14">
-        <v>29.59311820288931</v>
+        <v>43.20823541992158</v>
       </c>
       <c r="G14">
-        <v>38.17481559453061</v>
+        <v>52.28664405819503</v>
       </c>
       <c r="H14">
-        <v>11.98666015182359</v>
+        <v>20.12433244809233</v>
       </c>
       <c r="I14">
-        <v>21.82830027398177</v>
+        <v>33.32846747247963</v>
       </c>
       <c r="J14">
-        <v>5.633624447210515</v>
+        <v>10.36304417640981</v>
       </c>
       <c r="K14">
-        <v>26.08715218114932</v>
+        <v>20.49623684824575</v>
       </c>
       <c r="L14">
-        <v>5.555910018825651</v>
+        <v>10.12760601887693</v>
       </c>
       <c r="M14">
-        <v>19.44278509225776</v>
+        <v>20.68651832272116</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.726278514916649</v>
+        <v>8.4384054734663</v>
       </c>
       <c r="D15">
-        <v>5.058592738421383</v>
+        <v>6.893080394785557</v>
       </c>
       <c r="E15">
-        <v>7.442829520403317</v>
+        <v>12.48655402011524</v>
       </c>
       <c r="F15">
-        <v>29.54341656272176</v>
+        <v>43.22003994112888</v>
       </c>
       <c r="G15">
-        <v>38.08988448157044</v>
+        <v>52.30207581834203</v>
       </c>
       <c r="H15">
-        <v>11.98820649132977</v>
+        <v>20.13231991987587</v>
       </c>
       <c r="I15">
-        <v>21.8028013797307</v>
+        <v>33.33906697100705</v>
       </c>
       <c r="J15">
-        <v>5.640762392242366</v>
+        <v>10.36573033571112</v>
       </c>
       <c r="K15">
-        <v>25.94028092048841</v>
+        <v>20.44905279683704</v>
       </c>
       <c r="L15">
-        <v>5.56098503605766</v>
+        <v>10.12976904904753</v>
       </c>
       <c r="M15">
-        <v>19.35247501170633</v>
+        <v>20.66623052781016</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.577389019298343</v>
+        <v>8.413700983284947</v>
       </c>
       <c r="D16">
-        <v>4.953237878316044</v>
+        <v>6.874361553906446</v>
       </c>
       <c r="E16">
-        <v>7.412565754332889</v>
+        <v>12.49505622648869</v>
       </c>
       <c r="F16">
-        <v>29.27153526838214</v>
+        <v>43.29108728677842</v>
       </c>
       <c r="G16">
-        <v>37.6239071666317</v>
+        <v>52.39566579388947</v>
       </c>
       <c r="H16">
-        <v>12.00211374531458</v>
+        <v>20.17931541102322</v>
       </c>
       <c r="I16">
-        <v>21.66640942525532</v>
+        <v>33.40223863225375</v>
       </c>
       <c r="J16">
-        <v>5.682085948971466</v>
+        <v>10.38138392587952</v>
       </c>
       <c r="K16">
-        <v>25.0851296678612</v>
+        <v>20.17712872356746</v>
       </c>
       <c r="L16">
-        <v>5.590449561984174</v>
+        <v>10.14238894884574</v>
       </c>
       <c r="M16">
-        <v>18.82928244498516</v>
+        <v>20.55028852458104</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.485108629800129</v>
+        <v>8.39874693230607</v>
       </c>
       <c r="D17">
-        <v>4.887878798878402</v>
+        <v>6.862945930041042</v>
       </c>
       <c r="E17">
-        <v>7.394801482212848</v>
+        <v>12.50061345009838</v>
       </c>
       <c r="F17">
-        <v>29.11605044896909</v>
+        <v>43.33769963565626</v>
       </c>
       <c r="G17">
-        <v>37.3562003109951</v>
+        <v>52.45766574224334</v>
       </c>
       <c r="H17">
-        <v>12.01499072081865</v>
+        <v>20.20923510342599</v>
       </c>
       <c r="I17">
-        <v>21.5912012860959</v>
+        <v>33.44315627996458</v>
       </c>
       <c r="J17">
-        <v>5.707812512912742</v>
+        <v>10.39121958436029</v>
       </c>
       <c r="K17">
-        <v>24.54837649691944</v>
+        <v>20.00902439153694</v>
       </c>
       <c r="L17">
-        <v>5.608866550748501</v>
+        <v>10.15033149340811</v>
       </c>
       <c r="M17">
-        <v>18.50330501128488</v>
+        <v>20.47947145921181</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.431694866671083</v>
+        <v>8.390221344313105</v>
       </c>
       <c r="D18">
-        <v>4.850024077416642</v>
+        <v>6.856405827880146</v>
       </c>
       <c r="E18">
-        <v>7.384874658741443</v>
+        <v>12.50393543756892</v>
       </c>
       <c r="F18">
-        <v>29.03067830162511</v>
+        <v>43.36561939556209</v>
       </c>
       <c r="G18">
-        <v>37.20875548413117</v>
+        <v>52.49500519622019</v>
       </c>
       <c r="H18">
-        <v>12.0239330010929</v>
+        <v>20.22684394865794</v>
       </c>
       <c r="I18">
-        <v>21.55096650473251</v>
+        <v>33.4674843845488</v>
       </c>
       <c r="J18">
-        <v>5.722748755431769</v>
+        <v>10.39696247411041</v>
       </c>
       <c r="K18">
-        <v>24.23514532988874</v>
+        <v>19.91189393342217</v>
       </c>
       <c r="L18">
-        <v>5.619585366524989</v>
+        <v>10.15497371659467</v>
       </c>
       <c r="M18">
-        <v>18.31398562334629</v>
+        <v>20.4388629548421</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.413553066416959</v>
+        <v>8.387347857944901</v>
       </c>
       <c r="D19">
-        <v>4.837162698742299</v>
+        <v>6.854195993585738</v>
       </c>
       <c r="E19">
-        <v>7.381563177809363</v>
+        <v>12.50508179548757</v>
       </c>
       <c r="F19">
-        <v>29.00246060432569</v>
+        <v>43.37526283866339</v>
       </c>
       <c r="G19">
-        <v>37.15994173459062</v>
+        <v>52.50793539526762</v>
       </c>
       <c r="H19">
-        <v>12.02721879074815</v>
+        <v>20.23287462025684</v>
       </c>
       <c r="I19">
-        <v>21.53785456698837</v>
+        <v>33.47585754413651</v>
       </c>
       <c r="J19">
-        <v>5.727829867699635</v>
+        <v>10.39892164929532</v>
       </c>
       <c r="K19">
-        <v>24.12831305737431</v>
+        <v>19.8789345336287</v>
       </c>
       <c r="L19">
-        <v>5.623236224074637</v>
+        <v>10.15655819667859</v>
       </c>
       <c r="M19">
-        <v>18.24957369399566</v>
+        <v>20.42513577073722</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.49496709162754</v>
+        <v>8.400331029212476</v>
       </c>
       <c r="D20">
-        <v>4.894863621235929</v>
+        <v>6.864158487430339</v>
       </c>
       <c r="E20">
-        <v>7.396662345420155</v>
+        <v>12.50000887654664</v>
       </c>
       <c r="F20">
-        <v>29.1321798369848</v>
+        <v>43.33262276943049</v>
       </c>
       <c r="G20">
-        <v>37.38401882197675</v>
+        <v>52.45089185317041</v>
       </c>
       <c r="H20">
-        <v>12.01345963845749</v>
+        <v>20.20600870781673</v>
       </c>
       <c r="I20">
-        <v>21.59889247925</v>
+        <v>33.43871837480479</v>
       </c>
       <c r="J20">
-        <v>5.705059509639058</v>
+        <v>10.39016369802821</v>
       </c>
       <c r="K20">
-        <v>24.6059801112427</v>
+        <v>20.02696578870986</v>
       </c>
       <c r="L20">
-        <v>5.606893014191285</v>
+        <v>10.14947835279148</v>
       </c>
       <c r="M20">
-        <v>18.53819527153347</v>
+        <v>20.48699748583894</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.764420785398953</v>
+        <v>8.444844627674541</v>
       </c>
       <c r="D21">
-        <v>5.08556454960746</v>
+        <v>6.897933403592363</v>
       </c>
       <c r="E21">
-        <v>7.450894050379762</v>
+        <v>12.48446433324463</v>
       </c>
       <c r="F21">
-        <v>29.61718371310911</v>
+        <v>43.20263508080304</v>
       </c>
       <c r="G21">
-        <v>38.21591374557354</v>
+        <v>52.27933555100746</v>
       </c>
       <c r="H21">
-        <v>11.98601014407589</v>
+        <v>20.12052388347815</v>
       </c>
       <c r="I21">
-        <v>21.84070292516833</v>
+        <v>33.32342777850317</v>
       </c>
       <c r="J21">
-        <v>5.630208988990941</v>
+        <v>10.36176068860069</v>
       </c>
       <c r="K21">
-        <v>26.15734382178188</v>
+        <v>20.51883470950995</v>
       </c>
       <c r="L21">
-        <v>5.553483149017232</v>
+        <v>10.12657275232738</v>
       </c>
       <c r="M21">
-        <v>19.4859906478376</v>
+        <v>20.69625216770615</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.937343414685963</v>
+        <v>8.47457583397915</v>
       </c>
       <c r="D22">
-        <v>5.207763600382504</v>
+        <v>6.920217194747111</v>
       </c>
       <c r="E22">
-        <v>7.48900989661883</v>
+        <v>12.47542031291967</v>
       </c>
       <c r="F22">
-        <v>29.97232659773346</v>
+        <v>43.12762142561498</v>
       </c>
       <c r="G22">
-        <v>38.82066459359891</v>
+        <v>52.18229711903683</v>
       </c>
       <c r="H22">
-        <v>11.98306818618474</v>
+        <v>20.06822680250245</v>
       </c>
       <c r="I22">
-        <v>22.02751311648984</v>
+        <v>33.25518265065667</v>
       </c>
       <c r="J22">
-        <v>5.582509745006496</v>
+        <v>10.34395710574109</v>
       </c>
       <c r="K22">
-        <v>27.13203349212541</v>
+        <v>20.83570577057497</v>
       </c>
       <c r="L22">
-        <v>5.519689821049548</v>
+        <v>10.1122574482498</v>
       </c>
       <c r="M22">
-        <v>20.08885825896086</v>
+        <v>20.83390390642993</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.845349930748991</v>
+        <v>8.458650937115605</v>
       </c>
       <c r="D23">
-        <v>5.142770525899103</v>
+        <v>6.908305701457011</v>
       </c>
       <c r="E23">
-        <v>7.468418057666922</v>
+        <v>12.48014539960588</v>
       </c>
       <c r="F23">
-        <v>29.77919154541001</v>
+        <v>43.16674520561512</v>
       </c>
       <c r="G23">
-        <v>38.49217633917256</v>
+        <v>52.23270187524529</v>
       </c>
       <c r="H23">
-        <v>11.98320011407375</v>
+        <v>20.09581130937882</v>
       </c>
       <c r="I23">
-        <v>21.92508687580494</v>
+        <v>33.29095448192651</v>
       </c>
       <c r="J23">
-        <v>5.607856941358811</v>
+        <v>10.35338989560926</v>
       </c>
       <c r="K23">
-        <v>26.61536641618769</v>
+        <v>20.66703699436557</v>
       </c>
       <c r="L23">
-        <v>5.537624455610885</v>
+        <v>10.11983802657639</v>
       </c>
       <c r="M23">
-        <v>19.7686232015516</v>
+        <v>20.76036511913896</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.490511201797468</v>
+        <v>8.399614635328328</v>
       </c>
       <c r="D24">
-        <v>4.891706650544095</v>
+        <v>6.863610218728482</v>
       </c>
       <c r="E24">
-        <v>7.395820158955714</v>
+        <v>12.50028180841942</v>
       </c>
       <c r="F24">
-        <v>29.12487524768493</v>
+        <v>43.33491452716861</v>
       </c>
       <c r="G24">
-        <v>37.37142197378475</v>
+        <v>52.45394905037241</v>
       </c>
       <c r="H24">
-        <v>12.01414706113784</v>
+        <v>20.20746609162731</v>
       </c>
       <c r="I24">
-        <v>21.59540595659488</v>
+        <v>33.44072224763914</v>
       </c>
       <c r="J24">
-        <v>5.706303688399092</v>
+        <v>10.39064078933274</v>
       </c>
       <c r="K24">
-        <v>24.57995199392973</v>
+        <v>20.01885598627384</v>
       </c>
       <c r="L24">
-        <v>5.60778484305682</v>
+        <v>10.14986382105113</v>
       </c>
       <c r="M24">
-        <v>18.52242733191834</v>
+        <v>20.48359463925753</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.095072719802727</v>
+        <v>8.338842798077113</v>
       </c>
       <c r="D25">
-        <v>4.61098650878443</v>
+        <v>6.81639912585536</v>
       </c>
       <c r="E25">
-        <v>7.328581128646816</v>
+        <v>12.52680671834074</v>
       </c>
       <c r="F25">
-        <v>28.57295827014957</v>
+        <v>43.55869379624154</v>
       </c>
       <c r="G25">
-        <v>36.41024987497403</v>
+        <v>52.75669220672186</v>
       </c>
       <c r="H25">
-        <v>12.10555325904711</v>
+        <v>20.34318354462696</v>
       </c>
       <c r="I25">
-        <v>21.35423784931036</v>
+        <v>33.63257796306301</v>
       </c>
       <c r="J25">
-        <v>5.817821029694938</v>
+        <v>10.4340998362014</v>
       </c>
       <c r="K25">
-        <v>22.21172337791332</v>
+        <v>19.30326564752928</v>
       </c>
       <c r="L25">
-        <v>5.688281155267552</v>
+        <v>10.18507808106878</v>
       </c>
       <c r="M25">
-        <v>17.10883054593018</v>
+        <v>20.18989913149093</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.296760368086368</v>
+        <v>5.794372392433935</v>
       </c>
       <c r="D2">
-        <v>6.782595929419921</v>
+        <v>4.396569940250436</v>
       </c>
       <c r="E2">
-        <v>12.55048805425085</v>
+        <v>7.28815049772138</v>
       </c>
       <c r="F2">
-        <v>43.75957632028918</v>
+        <v>28.28719078193248</v>
       </c>
       <c r="G2">
-        <v>53.0339579370205</v>
+        <v>35.89773280939157</v>
       </c>
       <c r="H2">
-        <v>20.45620539983744</v>
+        <v>12.21617911689609</v>
       </c>
       <c r="I2">
-        <v>33.79970058325425</v>
+        <v>21.26482614242947</v>
       </c>
       <c r="J2">
-        <v>10.46894284426493</v>
+        <v>5.904632346764279</v>
       </c>
       <c r="K2">
-        <v>18.76607139671875</v>
+        <v>20.31469232651148</v>
       </c>
       <c r="L2">
-        <v>10.21345856491948</v>
+        <v>5.751749702625302</v>
       </c>
       <c r="M2">
-        <v>19.97887698724005</v>
+        <v>16.01141671133892</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.269980275549122</v>
+        <v>5.585566686658882</v>
       </c>
       <c r="D3">
-        <v>6.76033334489534</v>
+        <v>4.246997821230734</v>
       </c>
       <c r="E3">
-        <v>12.56913595964794</v>
+        <v>7.266196970700692</v>
       </c>
       <c r="F3">
-        <v>43.91806548420374</v>
+        <v>28.16248396661349</v>
       </c>
       <c r="G3">
-        <v>53.25536287100959</v>
+        <v>35.66201491375296</v>
       </c>
       <c r="H3">
-        <v>20.54094568574256</v>
+        <v>12.31513187347653</v>
       </c>
       <c r="I3">
-        <v>33.92898532588785</v>
+        <v>21.25397178920208</v>
       </c>
       <c r="J3">
-        <v>10.4943432626684</v>
+        <v>5.966460571775317</v>
       </c>
       <c r="K3">
-        <v>18.39768514395682</v>
+        <v>18.99618063235399</v>
       </c>
       <c r="L3">
-        <v>10.23423291124247</v>
+        <v>5.797412449949279</v>
       </c>
       <c r="M3">
-        <v>19.83964961765781</v>
+        <v>15.23489979943331</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.25442024269609</v>
+        <v>5.455270303465689</v>
       </c>
       <c r="D4">
-        <v>6.746998779562229</v>
+        <v>4.153293241995979</v>
       </c>
       <c r="E4">
-        <v>12.58187083143062</v>
+        <v>7.255333406825944</v>
       </c>
       <c r="F4">
-        <v>44.02634018647267</v>
+        <v>28.11773900291812</v>
       </c>
       <c r="G4">
-        <v>53.40768847762186</v>
+        <v>35.56864653919693</v>
       </c>
       <c r="H4">
-        <v>20.59698601571004</v>
+        <v>12.38678093541179</v>
       </c>
       <c r="I4">
-        <v>34.01623403274895</v>
+        <v>21.27008229764235</v>
       </c>
       <c r="J4">
-        <v>10.5108248446536</v>
+        <v>6.005921648503118</v>
       </c>
       <c r="K4">
-        <v>18.17011309525248</v>
+        <v>18.17021043197239</v>
       </c>
       <c r="L4">
-        <v>10.24775194412058</v>
+        <v>5.826766520215372</v>
       </c>
       <c r="M4">
-        <v>19.75620224175286</v>
+        <v>14.74311458153876</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.248305204450354</v>
+        <v>5.401714765281398</v>
       </c>
       <c r="D5">
-        <v>6.741651479197584</v>
+        <v>4.114679243251258</v>
       </c>
       <c r="E5">
-        <v>12.58738398285493</v>
+        <v>7.251553923366333</v>
       </c>
       <c r="F5">
-        <v>44.07320997382372</v>
+        <v>28.10717352972603</v>
       </c>
       <c r="G5">
-        <v>53.47386028299637</v>
+        <v>35.5429355007038</v>
       </c>
       <c r="H5">
-        <v>20.62082989921933</v>
+        <v>12.41858558718113</v>
       </c>
       <c r="I5">
-        <v>34.05376134042262</v>
+        <v>21.28211302479015</v>
       </c>
       <c r="J5">
-        <v>10.5177645036834</v>
+        <v>6.022382079394514</v>
       </c>
       <c r="K5">
-        <v>18.07714636376119</v>
+        <v>17.82381174522954</v>
       </c>
       <c r="L5">
-        <v>10.2534535524135</v>
+        <v>5.839061130156764</v>
       </c>
       <c r="M5">
-        <v>19.72273524048201</v>
+        <v>14.53915418508359</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.247303550830008</v>
+        <v>5.392796289677829</v>
       </c>
       <c r="D6">
-        <v>6.740768867910211</v>
+        <v>4.108242813623686</v>
       </c>
       <c r="E6">
-        <v>12.58831899485862</v>
+        <v>7.250965147411738</v>
       </c>
       <c r="F6">
-        <v>44.08115829511635</v>
+        <v>28.10587236878529</v>
       </c>
       <c r="G6">
-        <v>53.48509492310401</v>
+        <v>35.53939394753102</v>
       </c>
       <c r="H6">
-        <v>20.62484994274273</v>
+        <v>12.4240204738205</v>
       </c>
       <c r="I6">
-        <v>34.0601117062758</v>
+        <v>21.28443319689185</v>
       </c>
       <c r="J6">
-        <v>10.51893033156152</v>
+        <v>6.02513834255157</v>
       </c>
       <c r="K6">
-        <v>18.06169897151653</v>
+        <v>17.76570367484322</v>
       </c>
       <c r="L6">
-        <v>10.25441194105718</v>
+        <v>5.841122770526202</v>
       </c>
       <c r="M6">
-        <v>19.71721133141281</v>
+        <v>14.5050792246116</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.254336854059835</v>
+        <v>5.45454979879665</v>
       </c>
       <c r="D7">
-        <v>6.746926309960265</v>
+        <v>4.152774158260542</v>
       </c>
       <c r="E7">
-        <v>12.58194387290867</v>
+        <v>7.255279827339123</v>
       </c>
       <c r="F7">
-        <v>44.02696117921822</v>
+        <v>28.11756591150668</v>
       </c>
       <c r="G7">
-        <v>53.40856433053771</v>
+        <v>35.56825062064183</v>
       </c>
       <c r="H7">
-        <v>20.59730350701605</v>
+        <v>12.38719947685052</v>
       </c>
       <c r="I7">
-        <v>34.01673215903116</v>
+        <v>21.27022276319564</v>
       </c>
       <c r="J7">
-        <v>10.51091753049581</v>
+        <v>6.006142098209675</v>
       </c>
       <c r="K7">
-        <v>18.16886008347469</v>
+        <v>18.1655783385158</v>
       </c>
       <c r="L7">
-        <v>10.2478280579401</v>
+        <v>5.826930981068791</v>
       </c>
       <c r="M7">
-        <v>19.75574868031143</v>
+        <v>14.74037797261346</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.287345616998595</v>
+        <v>5.722847381719576</v>
       </c>
       <c r="D8">
-        <v>6.774851808928221</v>
+        <v>4.345407890643908</v>
       </c>
       <c r="E8">
-        <v>12.55665143802357</v>
+        <v>7.2800317880645</v>
       </c>
       <c r="F8">
-        <v>43.81194267999603</v>
+        <v>28.23738805846956</v>
       </c>
       <c r="G8">
-        <v>53.10688548157946</v>
+        <v>35.8054574036831</v>
       </c>
       <c r="H8">
-        <v>20.48459095611764</v>
+        <v>12.24795594802548</v>
       </c>
       <c r="I8">
-        <v>33.84264178143119</v>
+        <v>21.25619920579584</v>
       </c>
       <c r="J8">
-        <v>10.47751744928301</v>
+        <v>5.925641533018982</v>
       </c>
       <c r="K8">
-        <v>18.63940837106576</v>
+        <v>19.84776007695018</v>
       </c>
       <c r="L8">
-        <v>10.22046339868336</v>
+        <v>5.7672217391953</v>
       </c>
       <c r="M8">
-        <v>19.9304639607819</v>
+        <v>15.74690581876912</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.358910816056033</v>
+        <v>6.229865271955541</v>
       </c>
       <c r="D9">
-        <v>6.832159958100127</v>
+        <v>4.706810135795464</v>
       </c>
       <c r="E9">
-        <v>12.51722817977225</v>
+        <v>7.349791660608322</v>
       </c>
       <c r="F9">
-        <v>43.47768021475938</v>
+        <v>28.73933051707872</v>
       </c>
       <c r="G9">
-        <v>52.64621612165902</v>
+        <v>36.70243684486763</v>
       </c>
       <c r="H9">
-        <v>20.29542975427037</v>
+        <v>12.06760901294088</v>
       </c>
       <c r="I9">
-        <v>33.56391994483657</v>
+        <v>21.42108789069824</v>
       </c>
       <c r="J9">
-        <v>10.41902043085255</v>
+        <v>5.779534080573232</v>
       </c>
       <c r="K9">
-        <v>19.54618217353678</v>
+        <v>23.032971696949</v>
       </c>
       <c r="L9">
-        <v>10.17283657850683</v>
+        <v>5.660517372002978</v>
       </c>
       <c r="M9">
-        <v>20.28809001822064</v>
+        <v>17.5940539519017</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.4154174721325</v>
+        <v>6.587872540231593</v>
       </c>
       <c r="D10">
-        <v>6.875667591541499</v>
+        <v>4.960659908194068</v>
       </c>
       <c r="E10">
-        <v>12.49443911907041</v>
+        <v>7.414632451635188</v>
       </c>
       <c r="F10">
-        <v>43.28591905389494</v>
+        <v>29.28983412113986</v>
       </c>
       <c r="G10">
-        <v>52.38881911095737</v>
+        <v>37.6553498091148</v>
       </c>
       <c r="H10">
-        <v>20.17595558395969</v>
+        <v>12.00085688631504</v>
       </c>
       <c r="I10">
-        <v>33.39767728172136</v>
+        <v>21.67540716465846</v>
       </c>
       <c r="J10">
-        <v>10.38027320648134</v>
+        <v>5.67916914147506</v>
       </c>
       <c r="K10">
-        <v>20.19624846464786</v>
+        <v>25.14576948346826</v>
       </c>
       <c r="L10">
-        <v>10.14149264989818</v>
+        <v>5.58836508173324</v>
       </c>
       <c r="M10">
-        <v>20.55838528157347</v>
+        <v>18.86622997808041</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.441922424693152</v>
+        <v>6.747143446491459</v>
       </c>
       <c r="D11">
-        <v>6.895732279460462</v>
+        <v>5.073347954537125</v>
       </c>
       <c r="E11">
-        <v>12.48540654301863</v>
+        <v>7.447225499928738</v>
       </c>
       <c r="F11">
-        <v>43.21047962703716</v>
+        <v>29.58356299194757</v>
       </c>
       <c r="G11">
-        <v>52.28957508316002</v>
+        <v>38.15849301468599</v>
       </c>
       <c r="H11">
-        <v>20.12585516232956</v>
+        <v>11.98693588662328</v>
       </c>
       <c r="I11">
-        <v>33.33048500361585</v>
+        <v>21.82338583027355</v>
       </c>
       <c r="J11">
-        <v>10.36355684615439</v>
+        <v>5.634987825617134</v>
       </c>
       <c r="K11">
-        <v>20.48721995537754</v>
+        <v>26.05911780562765</v>
       </c>
       <c r="L11">
-        <v>10.12801878889649</v>
+        <v>5.556879042975647</v>
       </c>
       <c r="M11">
-        <v>20.68263750976348</v>
+        <v>19.42553703717086</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.452069314304664</v>
+        <v>6.806911547208871</v>
       </c>
       <c r="D12">
-        <v>6.903366599531598</v>
+        <v>5.115603412433012</v>
       </c>
       <c r="E12">
-        <v>12.48217747707006</v>
+        <v>7.460025196363293</v>
       </c>
       <c r="F12">
-        <v>43.18361716979923</v>
+        <v>29.70131655180221</v>
       </c>
       <c r="G12">
-        <v>52.25457982620726</v>
+        <v>38.35946706686951</v>
       </c>
       <c r="H12">
-        <v>20.10749593640582</v>
+        <v>11.98422091065897</v>
       </c>
       <c r="I12">
-        <v>33.30625907865601</v>
+        <v>21.88433710040299</v>
       </c>
       <c r="J12">
-        <v>10.35735705325512</v>
+        <v>5.618466799588916</v>
       </c>
       <c r="K12">
-        <v>20.59662353019956</v>
+        <v>26.39824358694139</v>
       </c>
       <c r="L12">
-        <v>10.12302891012766</v>
+        <v>5.545147009678013</v>
       </c>
       <c r="M12">
-        <v>20.72984455910571</v>
+        <v>19.63449255498863</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.449879186600644</v>
+        <v>6.794064002005658</v>
       </c>
       <c r="D13">
-        <v>6.901720847368265</v>
+        <v>5.1065216961858</v>
       </c>
       <c r="E13">
-        <v>12.48286441078975</v>
+        <v>7.457248009137805</v>
       </c>
       <c r="F13">
-        <v>43.1893265210166</v>
+        <v>29.6756613622591</v>
       </c>
       <c r="G13">
-        <v>52.26200134720166</v>
+        <v>38.31571266567668</v>
       </c>
       <c r="H13">
-        <v>20.11142264585393</v>
+        <v>11.98468876385399</v>
       </c>
       <c r="I13">
-        <v>33.31142228910267</v>
+        <v>21.8709872497002</v>
       </c>
       <c r="J13">
-        <v>10.35868650133289</v>
+        <v>5.622015622022156</v>
       </c>
       <c r="K13">
-        <v>20.57309775142364</v>
+        <v>26.32550435983154</v>
       </c>
       <c r="L13">
-        <v>10.12409857881717</v>
+        <v>5.547665233135784</v>
       </c>
       <c r="M13">
-        <v>20.71967125186666</v>
+        <v>19.5896171858614</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.442755038996879</v>
+        <v>6.752071650298556</v>
       </c>
       <c r="D14">
-        <v>6.896359650099545</v>
+        <v>5.076832769581966</v>
       </c>
       <c r="E14">
-        <v>12.48513705327086</v>
+        <v>7.448269299660673</v>
       </c>
       <c r="F14">
-        <v>43.20823541992158</v>
+        <v>29.59311820288937</v>
       </c>
       <c r="G14">
-        <v>52.28664405819503</v>
+        <v>38.17481559453068</v>
       </c>
       <c r="H14">
-        <v>20.12433244809233</v>
+        <v>11.98666015182363</v>
       </c>
       <c r="I14">
-        <v>33.32846747247963</v>
+        <v>21.82830027398184</v>
       </c>
       <c r="J14">
-        <v>10.36304417640981</v>
+        <v>5.633624447210574</v>
       </c>
       <c r="K14">
-        <v>20.49623684824575</v>
+        <v>26.08715218114927</v>
       </c>
       <c r="L14">
-        <v>10.12760601887693</v>
+        <v>5.555910018825651</v>
       </c>
       <c r="M14">
-        <v>20.68651832272116</v>
+        <v>19.44278509225778</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.4384054734663</v>
+        <v>6.726278514916649</v>
       </c>
       <c r="D15">
-        <v>6.893080394785557</v>
+        <v>5.058592738421437</v>
       </c>
       <c r="E15">
-        <v>12.48655402011524</v>
+        <v>7.442829520403304</v>
       </c>
       <c r="F15">
-        <v>43.22003994112888</v>
+        <v>29.54341656272166</v>
       </c>
       <c r="G15">
-        <v>52.30207581834203</v>
+        <v>38.08988448157029</v>
       </c>
       <c r="H15">
-        <v>20.13231991987587</v>
+        <v>11.98820649132973</v>
       </c>
       <c r="I15">
-        <v>33.33906697100705</v>
+        <v>21.80280137973061</v>
       </c>
       <c r="J15">
-        <v>10.36573033571112</v>
+        <v>5.640762392242303</v>
       </c>
       <c r="K15">
-        <v>20.44905279683704</v>
+        <v>25.94028092048843</v>
       </c>
       <c r="L15">
-        <v>10.12976904904753</v>
+        <v>5.560985036057657</v>
       </c>
       <c r="M15">
-        <v>20.66623052781016</v>
+        <v>19.35247501170629</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.413700983284947</v>
+        <v>6.577389019298218</v>
       </c>
       <c r="D16">
-        <v>6.874361553906446</v>
+        <v>4.953237878315915</v>
       </c>
       <c r="E16">
-        <v>12.49505622648869</v>
+        <v>7.412565754332842</v>
       </c>
       <c r="F16">
-        <v>43.29108728677842</v>
+        <v>29.27153526838201</v>
       </c>
       <c r="G16">
-        <v>52.39566579388947</v>
+        <v>37.62390716663174</v>
       </c>
       <c r="H16">
-        <v>20.17931541102322</v>
+        <v>12.0021137453145</v>
       </c>
       <c r="I16">
-        <v>33.40223863225375</v>
+        <v>21.66640942525528</v>
       </c>
       <c r="J16">
-        <v>10.38138392587952</v>
+        <v>5.682085948971499</v>
       </c>
       <c r="K16">
-        <v>20.17712872356746</v>
+        <v>25.08512966786118</v>
       </c>
       <c r="L16">
-        <v>10.14238894884574</v>
+        <v>5.590449561984112</v>
       </c>
       <c r="M16">
-        <v>20.55028852458104</v>
+        <v>18.82928244498516</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.39874693230607</v>
+        <v>6.485108629800074</v>
       </c>
       <c r="D17">
-        <v>6.862945930041042</v>
+        <v>4.887878798878448</v>
       </c>
       <c r="E17">
-        <v>12.50061345009838</v>
+        <v>7.394801482212808</v>
       </c>
       <c r="F17">
-        <v>43.33769963565626</v>
+        <v>29.11605044896899</v>
       </c>
       <c r="G17">
-        <v>52.45766574224334</v>
+        <v>37.35620031099501</v>
       </c>
       <c r="H17">
-        <v>20.20923510342599</v>
+        <v>12.01499072081855</v>
       </c>
       <c r="I17">
-        <v>33.44315627996458</v>
+        <v>21.59120128609577</v>
       </c>
       <c r="J17">
-        <v>10.39121958436029</v>
+        <v>5.707812512912716</v>
       </c>
       <c r="K17">
-        <v>20.00902439153694</v>
+        <v>24.54837649691948</v>
       </c>
       <c r="L17">
-        <v>10.15033149340811</v>
+        <v>5.608866550748534</v>
       </c>
       <c r="M17">
-        <v>20.47947145921181</v>
+        <v>18.50330501128487</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.390221344313105</v>
+        <v>6.431694866671083</v>
       </c>
       <c r="D18">
-        <v>6.856405827880146</v>
+        <v>4.850024077416641</v>
       </c>
       <c r="E18">
-        <v>12.50393543756892</v>
+        <v>7.384874658741393</v>
       </c>
       <c r="F18">
-        <v>43.36561939556209</v>
+        <v>29.03067830162498</v>
       </c>
       <c r="G18">
-        <v>52.49500519622019</v>
+        <v>37.208755484131</v>
       </c>
       <c r="H18">
-        <v>20.22684394865794</v>
+        <v>12.02393300109286</v>
       </c>
       <c r="I18">
-        <v>33.4674843845488</v>
+        <v>21.5509665047324</v>
       </c>
       <c r="J18">
-        <v>10.39696247411041</v>
+        <v>5.722748755431698</v>
       </c>
       <c r="K18">
-        <v>19.91189393342217</v>
+        <v>24.23514532988876</v>
       </c>
       <c r="L18">
-        <v>10.15497371659467</v>
+        <v>5.61958536652496</v>
       </c>
       <c r="M18">
-        <v>20.4388629548421</v>
+        <v>18.31398562334628</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.387347857944901</v>
+        <v>6.413553066417081</v>
       </c>
       <c r="D19">
-        <v>6.854195993585738</v>
+        <v>4.837162698742199</v>
       </c>
       <c r="E19">
-        <v>12.50508179548757</v>
+        <v>7.381563177809418</v>
       </c>
       <c r="F19">
-        <v>43.37526283866339</v>
+        <v>29.00246060432565</v>
       </c>
       <c r="G19">
-        <v>52.50793539526762</v>
+        <v>37.15994173459056</v>
       </c>
       <c r="H19">
-        <v>20.23287462025684</v>
+        <v>12.02721879074816</v>
       </c>
       <c r="I19">
-        <v>33.47585754413651</v>
+        <v>21.53785456698838</v>
       </c>
       <c r="J19">
-        <v>10.39892164929532</v>
+        <v>5.727829867699669</v>
       </c>
       <c r="K19">
-        <v>19.8789345336287</v>
+        <v>24.12831305737435</v>
       </c>
       <c r="L19">
-        <v>10.15655819667859</v>
+        <v>5.623236224074637</v>
       </c>
       <c r="M19">
-        <v>20.42513577073722</v>
+        <v>18.24957369399565</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.400331029212476</v>
+        <v>6.494967091627571</v>
       </c>
       <c r="D20">
-        <v>6.864158487430339</v>
+        <v>4.894863621235904</v>
       </c>
       <c r="E20">
-        <v>12.50000887654664</v>
+        <v>7.396662345420222</v>
       </c>
       <c r="F20">
-        <v>43.33262276943049</v>
+        <v>29.13217983698488</v>
       </c>
       <c r="G20">
-        <v>52.45089185317041</v>
+        <v>37.38401882197688</v>
       </c>
       <c r="H20">
-        <v>20.20600870781673</v>
+        <v>12.01345963845753</v>
       </c>
       <c r="I20">
-        <v>33.43871837480479</v>
+        <v>21.5988924792501</v>
       </c>
       <c r="J20">
-        <v>10.39016369802821</v>
+        <v>5.705059509639123</v>
       </c>
       <c r="K20">
-        <v>20.02696578870986</v>
+        <v>24.6059801112427</v>
       </c>
       <c r="L20">
-        <v>10.14947835279148</v>
+        <v>5.606893014191283</v>
       </c>
       <c r="M20">
-        <v>20.48699748583894</v>
+        <v>18.5381952715335</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.444844627674541</v>
+        <v>6.764420785398998</v>
       </c>
       <c r="D21">
-        <v>6.897933403592363</v>
+        <v>5.085564549607533</v>
       </c>
       <c r="E21">
-        <v>12.48446433324463</v>
+        <v>7.450894050379767</v>
       </c>
       <c r="F21">
-        <v>43.20263508080304</v>
+        <v>29.61718371310914</v>
       </c>
       <c r="G21">
-        <v>52.27933555100746</v>
+        <v>38.21591374557357</v>
       </c>
       <c r="H21">
-        <v>20.12052388347815</v>
+        <v>11.98601014407584</v>
       </c>
       <c r="I21">
-        <v>33.32342777850317</v>
+        <v>21.84070292516835</v>
       </c>
       <c r="J21">
-        <v>10.36176068860069</v>
+        <v>5.630208988990881</v>
       </c>
       <c r="K21">
-        <v>20.51883470950995</v>
+        <v>26.15734382178188</v>
       </c>
       <c r="L21">
-        <v>10.12657275232738</v>
+        <v>5.553483149017169</v>
       </c>
       <c r="M21">
-        <v>20.69625216770615</v>
+        <v>19.4859906478376</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.47457583397915</v>
+        <v>6.937343414685788</v>
       </c>
       <c r="D22">
-        <v>6.920217194747111</v>
+        <v>5.207763600382497</v>
       </c>
       <c r="E22">
-        <v>12.47542031291967</v>
+        <v>7.489009896618877</v>
       </c>
       <c r="F22">
-        <v>43.12762142561498</v>
+        <v>29.97232659773334</v>
       </c>
       <c r="G22">
-        <v>52.18229711903683</v>
+        <v>38.82066459359877</v>
       </c>
       <c r="H22">
-        <v>20.06822680250245</v>
+        <v>11.9830681861847</v>
       </c>
       <c r="I22">
-        <v>33.25518265065667</v>
+        <v>22.02751311648968</v>
       </c>
       <c r="J22">
-        <v>10.34395710574109</v>
+        <v>5.582509745006496</v>
       </c>
       <c r="K22">
-        <v>20.83570577057497</v>
+        <v>27.13203349212546</v>
       </c>
       <c r="L22">
-        <v>10.1122574482498</v>
+        <v>5.519689821049677</v>
       </c>
       <c r="M22">
-        <v>20.83390390642993</v>
+        <v>20.08885825896087</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.458650937115605</v>
+        <v>6.84534993074899</v>
       </c>
       <c r="D23">
-        <v>6.908305701457011</v>
+        <v>5.142770525899133</v>
       </c>
       <c r="E23">
-        <v>12.48014539960588</v>
+        <v>7.468418057666963</v>
       </c>
       <c r="F23">
-        <v>43.16674520561512</v>
+        <v>29.77919154540982</v>
       </c>
       <c r="G23">
-        <v>52.23270187524529</v>
+        <v>38.49217633917237</v>
       </c>
       <c r="H23">
-        <v>20.09581130937882</v>
+        <v>11.98320011407357</v>
       </c>
       <c r="I23">
-        <v>33.29095448192651</v>
+        <v>21.92508687580479</v>
       </c>
       <c r="J23">
-        <v>10.35338989560926</v>
+        <v>5.607856941358784</v>
       </c>
       <c r="K23">
-        <v>20.66703699436557</v>
+        <v>26.61536641618777</v>
       </c>
       <c r="L23">
-        <v>10.11983802657639</v>
+        <v>5.537624455610975</v>
       </c>
       <c r="M23">
-        <v>20.76036511913896</v>
+        <v>19.76862320155161</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.399614635328328</v>
+        <v>6.49051120179737</v>
       </c>
       <c r="D24">
-        <v>6.863610218728482</v>
+        <v>4.891706650544142</v>
       </c>
       <c r="E24">
-        <v>12.50028180841942</v>
+        <v>7.395820158955761</v>
       </c>
       <c r="F24">
-        <v>43.33491452716861</v>
+        <v>29.12487524768498</v>
       </c>
       <c r="G24">
-        <v>52.45394905037241</v>
+        <v>37.3714219737848</v>
       </c>
       <c r="H24">
-        <v>20.20746609162731</v>
+        <v>12.01414706113787</v>
       </c>
       <c r="I24">
-        <v>33.44072224763914</v>
+        <v>21.59540595659491</v>
       </c>
       <c r="J24">
-        <v>10.39064078933274</v>
+        <v>5.706303688399121</v>
       </c>
       <c r="K24">
-        <v>20.01885598627384</v>
+        <v>24.57995199392969</v>
       </c>
       <c r="L24">
-        <v>10.14986382105113</v>
+        <v>5.607784843056886</v>
       </c>
       <c r="M24">
-        <v>20.48359463925753</v>
+        <v>18.52242733191837</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.338842798077113</v>
+        <v>6.09507271980265</v>
       </c>
       <c r="D25">
-        <v>6.81639912585536</v>
+        <v>4.610986508784372</v>
       </c>
       <c r="E25">
-        <v>12.52680671834074</v>
+        <v>7.328581128646813</v>
       </c>
       <c r="F25">
-        <v>43.55869379624154</v>
+        <v>28.57295827014958</v>
       </c>
       <c r="G25">
-        <v>52.75669220672186</v>
+        <v>36.41024987497413</v>
       </c>
       <c r="H25">
-        <v>20.34318354462696</v>
+        <v>12.10555325904704</v>
       </c>
       <c r="I25">
-        <v>33.63257796306301</v>
+        <v>21.35423784931039</v>
       </c>
       <c r="J25">
-        <v>10.4340998362014</v>
+        <v>5.817821029694997</v>
       </c>
       <c r="K25">
-        <v>19.30326564752928</v>
+        <v>22.21172337791329</v>
       </c>
       <c r="L25">
-        <v>10.18507808106878</v>
+        <v>5.68828115526752</v>
       </c>
       <c r="M25">
-        <v>20.18989913149093</v>
+        <v>17.10883054593019</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,995 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>5.794372392433935</v>
+        <v>11.24852140442997</v>
       </c>
       <c r="D2">
-        <v>4.396569940250436</v>
+        <v>3.19395137955062</v>
       </c>
       <c r="E2">
-        <v>7.28815049772138</v>
+        <v>12.7055610439122</v>
       </c>
       <c r="F2">
-        <v>28.28719078193248</v>
+        <v>26.73588939511731</v>
       </c>
       <c r="G2">
-        <v>35.89773280939157</v>
+        <v>38.74888950056024</v>
       </c>
       <c r="H2">
-        <v>12.21617911689609</v>
+        <v>2.883799783889629</v>
       </c>
       <c r="I2">
-        <v>21.26482614242947</v>
+        <v>4.071479902795383</v>
       </c>
       <c r="J2">
-        <v>5.904632346764279</v>
+        <v>11.38168822582402</v>
       </c>
       <c r="K2">
-        <v>20.31469232651148</v>
+        <v>22.44115156241734</v>
       </c>
       <c r="L2">
-        <v>5.751749702625302</v>
-      </c>
-      <c r="M2">
-        <v>16.01141671133892</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>7.66872789976309</v>
+      </c>
+      <c r="Q2">
+        <v>21.20970228602395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>5.585566686658882</v>
+        <v>10.86624957500908</v>
       </c>
       <c r="D3">
-        <v>4.246997821230734</v>
+        <v>3.13305243386133</v>
       </c>
       <c r="E3">
-        <v>7.266196970700692</v>
+        <v>12.22639962988714</v>
       </c>
       <c r="F3">
-        <v>28.16248396661349</v>
+        <v>25.32797384236754</v>
       </c>
       <c r="G3">
-        <v>35.66201491375296</v>
+        <v>36.49251569631485</v>
       </c>
       <c r="H3">
-        <v>12.31513187347653</v>
+        <v>2.642467429846984</v>
       </c>
       <c r="I3">
-        <v>21.25397178920208</v>
+        <v>3.85977403779155</v>
       </c>
       <c r="J3">
-        <v>5.966460571775317</v>
+        <v>10.98942479933913</v>
       </c>
       <c r="K3">
-        <v>18.99618063235399</v>
+        <v>21.45244591787265</v>
       </c>
       <c r="L3">
-        <v>5.797412449949279</v>
-      </c>
-      <c r="M3">
-        <v>15.23489979943331</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>7.439224539768249</v>
+      </c>
+      <c r="Q3">
+        <v>20.22095615960491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>5.455270303465689</v>
+        <v>10.61978442797439</v>
       </c>
       <c r="D4">
-        <v>4.153293241995979</v>
+        <v>3.094054442948869</v>
       </c>
       <c r="E4">
-        <v>7.255333406825944</v>
+        <v>11.92006285739553</v>
       </c>
       <c r="F4">
-        <v>28.11773900291812</v>
+        <v>24.42734189127124</v>
       </c>
       <c r="G4">
-        <v>35.56864653919693</v>
+        <v>35.03792900608328</v>
       </c>
       <c r="H4">
-        <v>12.38678093541179</v>
+        <v>2.488649495604127</v>
       </c>
       <c r="I4">
-        <v>21.27008229764235</v>
+        <v>3.725139248009518</v>
       </c>
       <c r="J4">
-        <v>6.005921648503118</v>
+        <v>10.74296958878099</v>
       </c>
       <c r="K4">
-        <v>18.17021043197239</v>
+        <v>20.82188451962945</v>
       </c>
       <c r="L4">
-        <v>5.826766520215372</v>
-      </c>
-      <c r="M4">
-        <v>14.74311458153876</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>7.294354279113089</v>
+      </c>
+      <c r="Q4">
+        <v>19.59142863059252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>5.401714765281398</v>
+        <v>10.50753952700111</v>
       </c>
       <c r="D5">
-        <v>4.114679243251258</v>
+        <v>3.078092653553911</v>
       </c>
       <c r="E5">
-        <v>7.251553923366333</v>
+        <v>11.78855470930991</v>
       </c>
       <c r="F5">
-        <v>28.10717352972603</v>
+        <v>24.04232970691588</v>
       </c>
       <c r="G5">
-        <v>35.5429355007038</v>
+        <v>34.41132067352534</v>
       </c>
       <c r="H5">
-        <v>12.41858558718113</v>
+        <v>2.423996043082135</v>
       </c>
       <c r="I5">
-        <v>21.28211302479015</v>
+        <v>3.668913223602047</v>
       </c>
       <c r="J5">
-        <v>6.022382079394514</v>
+        <v>10.63792497893888</v>
       </c>
       <c r="K5">
-        <v>17.82381174522954</v>
+        <v>20.54868315468952</v>
       </c>
       <c r="L5">
-        <v>5.839061130156764</v>
-      </c>
-      <c r="M5">
-        <v>14.53915418508359</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>7.234808995120447</v>
+      </c>
+      <c r="Q5">
+        <v>19.32172632537376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>5.392796289677829</v>
+        <v>10.47783731729948</v>
       </c>
       <c r="D6">
-        <v>4.108242813623686</v>
+        <v>3.075831941198727</v>
       </c>
       <c r="E6">
-        <v>7.250965147411738</v>
+        <v>11.76200392660959</v>
       </c>
       <c r="F6">
-        <v>28.10587236878529</v>
+        <v>23.96655315676896</v>
       </c>
       <c r="G6">
-        <v>35.53939394753102</v>
+        <v>34.28566068520563</v>
       </c>
       <c r="H6">
-        <v>12.4240204738205</v>
+        <v>2.41252357792786</v>
       </c>
       <c r="I6">
-        <v>21.28443319689185</v>
+        <v>3.659443463470335</v>
       </c>
       <c r="J6">
-        <v>6.02513834255157</v>
+        <v>10.61633457724829</v>
       </c>
       <c r="K6">
-        <v>17.76570367484322</v>
+        <v>20.48999450877184</v>
       </c>
       <c r="L6">
-        <v>5.841122770526202</v>
-      </c>
-      <c r="M6">
-        <v>14.5050792246116</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>7.225410288617538</v>
+      </c>
+      <c r="Q6">
+        <v>19.26706870716387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>5.45454979879665</v>
+        <v>10.5888404511338</v>
       </c>
       <c r="D7">
-        <v>4.152774158260542</v>
+        <v>3.094979527883211</v>
       </c>
       <c r="E7">
-        <v>7.255279827339123</v>
+        <v>11.90607189328337</v>
       </c>
       <c r="F7">
-        <v>28.11756591150668</v>
+        <v>24.39179762261626</v>
       </c>
       <c r="G7">
-        <v>35.56825062064183</v>
+        <v>34.97444216328597</v>
       </c>
       <c r="H7">
-        <v>12.38719947685052</v>
+        <v>2.48603176673982</v>
       </c>
       <c r="I7">
-        <v>21.27022276319564</v>
+        <v>3.723972077462185</v>
       </c>
       <c r="J7">
-        <v>6.006142098209675</v>
+        <v>10.73055173055159</v>
       </c>
       <c r="K7">
-        <v>18.1655783385158</v>
+        <v>20.78325169754905</v>
       </c>
       <c r="L7">
-        <v>5.826930981068791</v>
-      </c>
-      <c r="M7">
-        <v>14.74037797261346</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>7.295037501428554</v>
+      </c>
+      <c r="Q7">
+        <v>19.56210980467603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>5.722847381719576</v>
+        <v>11.08169423362908</v>
       </c>
       <c r="D8">
-        <v>4.345407890643908</v>
+        <v>3.174830114907484</v>
       </c>
       <c r="E8">
-        <v>7.2800317880645</v>
+        <v>12.52746150502874</v>
       </c>
       <c r="F8">
-        <v>28.23738805846956</v>
+        <v>26.22035911228241</v>
       </c>
       <c r="G8">
-        <v>35.8054574036831</v>
+        <v>37.91745056346098</v>
       </c>
       <c r="H8">
-        <v>12.24795594802548</v>
+        <v>2.799520101191026</v>
       </c>
       <c r="I8">
-        <v>21.25619920579584</v>
+        <v>3.998594360147005</v>
       </c>
       <c r="J8">
-        <v>5.925641533018982</v>
+        <v>11.2336682596678</v>
       </c>
       <c r="K8">
-        <v>19.84776007695018</v>
+        <v>22.06132092209214</v>
       </c>
       <c r="L8">
-        <v>5.7672217391953</v>
-      </c>
-      <c r="M8">
-        <v>15.74690581876912</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>7.592369823180661</v>
+      </c>
+      <c r="Q8">
+        <v>20.84139725243992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>6.229865271955541</v>
+        <v>12.00267694728413</v>
       </c>
       <c r="D9">
-        <v>4.706810135795464</v>
+        <v>3.316659481161609</v>
       </c>
       <c r="E9">
-        <v>7.349791660608322</v>
+        <v>13.66707675182331</v>
       </c>
       <c r="F9">
-        <v>28.73933051707872</v>
+        <v>29.55653998534231</v>
       </c>
       <c r="G9">
-        <v>36.70243684486763</v>
+        <v>43.21684979828005</v>
       </c>
       <c r="H9">
-        <v>12.06760901294088</v>
+        <v>3.373502727468932</v>
       </c>
       <c r="I9">
-        <v>21.42108789069824</v>
+        <v>4.502641807385578</v>
       </c>
       <c r="J9">
-        <v>5.779534080573232</v>
+        <v>12.18952295184727</v>
       </c>
       <c r="K9">
-        <v>23.032971696949</v>
+        <v>24.42894850098866</v>
       </c>
       <c r="L9">
-        <v>5.660517372002978</v>
-      </c>
-      <c r="M9">
-        <v>17.5940539519017</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>8.139894937650331</v>
+      </c>
+      <c r="Q9">
+        <v>23.20414606212519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>6.587872540231593</v>
+        <v>12.51488738604024</v>
       </c>
       <c r="D10">
-        <v>4.960659908194068</v>
+        <v>3.420640665717354</v>
       </c>
       <c r="E10">
-        <v>7.414632451635188</v>
+        <v>14.24235013791327</v>
       </c>
       <c r="F10">
-        <v>29.28983412113986</v>
+        <v>31.68117102898491</v>
       </c>
       <c r="G10">
-        <v>37.6553498091148</v>
+        <v>46.52384861095765</v>
       </c>
       <c r="H10">
-        <v>12.00085688631504</v>
+        <v>3.751835092144974</v>
       </c>
       <c r="I10">
-        <v>21.67540716465846</v>
+        <v>4.842946811960676</v>
       </c>
       <c r="J10">
-        <v>5.67916914147506</v>
+        <v>12.80506367254395</v>
       </c>
       <c r="K10">
-        <v>25.14576948346826</v>
+        <v>25.89443086004011</v>
       </c>
       <c r="L10">
-        <v>5.58836508173324</v>
-      </c>
-      <c r="M10">
-        <v>18.86622997808041</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>8.405133752390661</v>
+      </c>
+      <c r="Q10">
+        <v>24.70045731823411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>6.747143446491459</v>
+        <v>11.93342797333563</v>
       </c>
       <c r="D11">
-        <v>5.073347954537125</v>
+        <v>3.537527101812317</v>
       </c>
       <c r="E11">
-        <v>7.447225499928738</v>
+        <v>12.87611500384533</v>
       </c>
       <c r="F11">
-        <v>29.58356299194757</v>
+        <v>31.54483957020025</v>
       </c>
       <c r="G11">
-        <v>38.15849301468599</v>
+        <v>46.07477214370805</v>
       </c>
       <c r="H11">
-        <v>11.98693588662328</v>
+        <v>4.282570548306412</v>
       </c>
       <c r="I11">
-        <v>21.82338583027355</v>
+        <v>4.917004096553145</v>
       </c>
       <c r="J11">
-        <v>5.634987825617134</v>
+        <v>12.66301873135498</v>
       </c>
       <c r="K11">
-        <v>26.05911780562765</v>
+        <v>25.385126643566</v>
       </c>
       <c r="L11">
-        <v>5.556879042975647</v>
-      </c>
-      <c r="M11">
-        <v>19.42553703717086</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>7.574085770430629</v>
+      </c>
+      <c r="Q11">
+        <v>24.43530457409987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>6.806911547208871</v>
+        <v>11.39793216379311</v>
       </c>
       <c r="D12">
-        <v>5.115603412433012</v>
+        <v>3.625012207355207</v>
       </c>
       <c r="E12">
-        <v>7.460025196363293</v>
+        <v>11.70461346447542</v>
       </c>
       <c r="F12">
-        <v>29.70131655180221</v>
+        <v>31.01776184761524</v>
       </c>
       <c r="G12">
-        <v>38.35946706686951</v>
+        <v>45.06514207614269</v>
       </c>
       <c r="H12">
-        <v>11.98422091065897</v>
+        <v>5.199051735662795</v>
       </c>
       <c r="I12">
-        <v>21.88433710040299</v>
+        <v>4.914573293305828</v>
       </c>
       <c r="J12">
-        <v>5.618466799588916</v>
+        <v>12.42337958013336</v>
       </c>
       <c r="K12">
-        <v>26.39824358694139</v>
+        <v>24.68345284453343</v>
       </c>
       <c r="L12">
-        <v>5.545147009678013</v>
-      </c>
-      <c r="M12">
-        <v>19.63449255498863</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>6.892138104918671</v>
+      </c>
+      <c r="Q12">
+        <v>23.92330945167889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>6.794064002005658</v>
+        <v>10.82143496109831</v>
       </c>
       <c r="D13">
-        <v>5.1065216961858</v>
+        <v>3.696074922632816</v>
       </c>
       <c r="E13">
-        <v>7.457248009137805</v>
+        <v>10.60787416386291</v>
       </c>
       <c r="F13">
-        <v>29.6756613622591</v>
+        <v>30.10355506075284</v>
       </c>
       <c r="G13">
-        <v>38.31571266567668</v>
+        <v>43.46335855995986</v>
       </c>
       <c r="H13">
-        <v>11.98468876385399</v>
+        <v>6.27987647930391</v>
       </c>
       <c r="I13">
-        <v>21.8709872497002</v>
+        <v>4.852812939589128</v>
       </c>
       <c r="J13">
-        <v>5.622015622022156</v>
+        <v>12.07405581831348</v>
       </c>
       <c r="K13">
-        <v>26.32550435983154</v>
+        <v>23.72895032276148</v>
       </c>
       <c r="L13">
-        <v>5.547665233135784</v>
-      </c>
-      <c r="M13">
-        <v>19.5896171858614</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>6.303946141818294</v>
+      </c>
+      <c r="Q13">
+        <v>23.14328254356125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>6.752071650298556</v>
+        <v>10.39712186363705</v>
       </c>
       <c r="D14">
-        <v>5.076832769581966</v>
+        <v>3.740054003595847</v>
       </c>
       <c r="E14">
-        <v>7.448269299660673</v>
+        <v>9.90750156228739</v>
       </c>
       <c r="F14">
-        <v>29.59311820288937</v>
+        <v>29.26891816765999</v>
       </c>
       <c r="G14">
-        <v>38.17481559453068</v>
+        <v>42.03828192792025</v>
       </c>
       <c r="H14">
-        <v>11.98666015182363</v>
+        <v>7.101608575928932</v>
       </c>
       <c r="I14">
-        <v>21.82830027398184</v>
+        <v>4.783307060320358</v>
       </c>
       <c r="J14">
-        <v>5.633624447210574</v>
+        <v>11.77390254580529</v>
       </c>
       <c r="K14">
-        <v>26.08715218114927</v>
+        <v>22.92732215887367</v>
       </c>
       <c r="L14">
-        <v>5.555910018825651</v>
-      </c>
-      <c r="M14">
-        <v>19.44278509225778</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>5.966216286081708</v>
+      </c>
+      <c r="Q14">
+        <v>22.46024285574266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>6.726278514916649</v>
+        <v>10.27448411636344</v>
       </c>
       <c r="D15">
-        <v>5.058592738421437</v>
+        <v>3.746680388731239</v>
       </c>
       <c r="E15">
-        <v>7.442829520403304</v>
+        <v>9.739863952235636</v>
       </c>
       <c r="F15">
-        <v>29.54341656272166</v>
+        <v>28.97145882896287</v>
       </c>
       <c r="G15">
-        <v>38.08988448157029</v>
+        <v>41.54340459643119</v>
       </c>
       <c r="H15">
-        <v>11.98820649132973</v>
+        <v>7.28874549323718</v>
       </c>
       <c r="I15">
-        <v>21.80280137973061</v>
+        <v>4.753115178756987</v>
       </c>
       <c r="J15">
-        <v>5.640762392242303</v>
+        <v>11.67385075596465</v>
       </c>
       <c r="K15">
-        <v>25.94028092048843</v>
+        <v>22.66607051819729</v>
       </c>
       <c r="L15">
-        <v>5.560985036057657</v>
-      </c>
-      <c r="M15">
-        <v>19.35247501170629</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>5.894128831375095</v>
+      </c>
+      <c r="Q15">
+        <v>22.22745064752763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>6.577389019298218</v>
+        <v>10.14182006222741</v>
       </c>
       <c r="D16">
-        <v>4.953237878315915</v>
+        <v>3.689254399496923</v>
       </c>
       <c r="E16">
-        <v>7.412565754332842</v>
+        <v>9.671205167946946</v>
       </c>
       <c r="F16">
-        <v>29.27153526838201</v>
+        <v>28.19407502196356</v>
       </c>
       <c r="G16">
-        <v>37.62390716663174</v>
+        <v>40.34858762301528</v>
       </c>
       <c r="H16">
-        <v>12.0021137453145</v>
+        <v>7.005187665837694</v>
       </c>
       <c r="I16">
-        <v>21.66640942525528</v>
+        <v>4.621287417026197</v>
       </c>
       <c r="J16">
-        <v>5.682085948971499</v>
+        <v>11.46349671063801</v>
       </c>
       <c r="K16">
-        <v>25.08512966786118</v>
+        <v>22.17433049322842</v>
       </c>
       <c r="L16">
-        <v>5.590449561984112</v>
-      </c>
-      <c r="M16">
-        <v>18.82928244498516</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>5.884216371984134</v>
+      </c>
+      <c r="Q16">
+        <v>21.69893285505817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>6.485108629800074</v>
+        <v>10.26377753016434</v>
       </c>
       <c r="D17">
-        <v>4.887878798878448</v>
+        <v>3.620296826362049</v>
       </c>
       <c r="E17">
-        <v>7.394801482212808</v>
+        <v>9.975658548521677</v>
       </c>
       <c r="F17">
-        <v>29.11605044896899</v>
+        <v>28.05324313233872</v>
       </c>
       <c r="G17">
-        <v>37.35620031099501</v>
+        <v>40.21243105714434</v>
       </c>
       <c r="H17">
-        <v>12.01499072081855</v>
+        <v>6.300795226495949</v>
       </c>
       <c r="I17">
-        <v>21.59120128609577</v>
+        <v>4.556603214894733</v>
       </c>
       <c r="J17">
-        <v>5.707812512912716</v>
+        <v>11.46545907330858</v>
       </c>
       <c r="K17">
-        <v>24.54837649691948</v>
+        <v>22.23487379683333</v>
       </c>
       <c r="L17">
-        <v>5.608866550748534</v>
-      </c>
-      <c r="M17">
-        <v>18.50330501128487</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>6.042085074440299</v>
+      </c>
+      <c r="Q17">
+        <v>21.66672129151393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>6.431694866671083</v>
+        <v>10.6576539632107</v>
       </c>
       <c r="D18">
-        <v>4.850024077416641</v>
+        <v>3.536979373529077</v>
       </c>
       <c r="E18">
-        <v>7.384874658741393</v>
+        <v>10.7400164457929</v>
       </c>
       <c r="F18">
-        <v>29.03067830162498</v>
+        <v>28.47150418040256</v>
       </c>
       <c r="G18">
-        <v>37.208755484131</v>
+        <v>41.02252592902388</v>
       </c>
       <c r="H18">
-        <v>12.02393300109286</v>
+        <v>5.227575569708105</v>
       </c>
       <c r="I18">
-        <v>21.5509665047324</v>
+        <v>4.545075132771865</v>
       </c>
       <c r="J18">
-        <v>5.722748755431698</v>
+        <v>11.65784698929284</v>
       </c>
       <c r="K18">
-        <v>24.23514532988876</v>
+        <v>22.80442529256322</v>
       </c>
       <c r="L18">
-        <v>5.61958536652496</v>
-      </c>
-      <c r="M18">
-        <v>18.31398562334628</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>6.439957798859612</v>
+      </c>
+      <c r="Q18">
+        <v>22.07851316474361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>6.413553066417081</v>
+        <v>11.22597714100323</v>
       </c>
       <c r="D19">
-        <v>4.837162698742199</v>
+        <v>3.460588148562358</v>
       </c>
       <c r="E19">
-        <v>7.381563177809418</v>
+        <v>11.91004887813839</v>
       </c>
       <c r="F19">
-        <v>29.00246060432565</v>
+        <v>29.25022593316576</v>
       </c>
       <c r="G19">
-        <v>37.15994173459056</v>
+        <v>42.43059445907284</v>
       </c>
       <c r="H19">
-        <v>12.02721879074816</v>
+        <v>4.158638550234303</v>
       </c>
       <c r="I19">
-        <v>21.53785456698838</v>
+        <v>4.58329736869704</v>
       </c>
       <c r="J19">
-        <v>5.727829867699669</v>
+        <v>11.96690614697604</v>
       </c>
       <c r="K19">
-        <v>24.12831305737435</v>
+        <v>23.67518986807274</v>
       </c>
       <c r="L19">
-        <v>5.623236224074637</v>
-      </c>
-      <c r="M19">
-        <v>18.24957369399565</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>7.093536255892301</v>
+      </c>
+      <c r="Q19">
+        <v>22.7665291047869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>6.494967091627571</v>
+        <v>12.3005494528993</v>
       </c>
       <c r="D20">
-        <v>4.894863621235904</v>
+        <v>3.398039786798272</v>
       </c>
       <c r="E20">
-        <v>7.396662345420222</v>
+        <v>14.05355910085598</v>
       </c>
       <c r="F20">
-        <v>29.13217983698488</v>
+        <v>31.05381664347507</v>
       </c>
       <c r="G20">
-        <v>37.38401882197688</v>
+        <v>45.53193902628518</v>
       </c>
       <c r="H20">
-        <v>12.01345963845753</v>
+        <v>3.647560093732779</v>
       </c>
       <c r="I20">
-        <v>21.5988924792501</v>
+        <v>4.75463747500353</v>
       </c>
       <c r="J20">
-        <v>5.705059509639123</v>
+        <v>12.61402055114152</v>
       </c>
       <c r="K20">
-        <v>24.6059801112427</v>
+        <v>25.42111173825935</v>
       </c>
       <c r="L20">
-        <v>5.606893014191283</v>
-      </c>
-      <c r="M20">
-        <v>18.5381952715335</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>8.335535040258126</v>
+      </c>
+      <c r="Q20">
+        <v>24.24476929921335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>6.764420785398998</v>
+        <v>12.83487742334484</v>
       </c>
       <c r="D21">
-        <v>5.085564549607533</v>
+        <v>3.464137993677606</v>
       </c>
       <c r="E21">
-        <v>7.450894050379767</v>
+        <v>14.78179866341078</v>
       </c>
       <c r="F21">
-        <v>29.61718371310914</v>
+        <v>32.82545419677322</v>
       </c>
       <c r="G21">
-        <v>38.21591374557357</v>
+        <v>48.32166581062315</v>
       </c>
       <c r="H21">
-        <v>11.98601014407584</v>
+        <v>3.959462237940039</v>
       </c>
       <c r="I21">
-        <v>21.84070292516835</v>
+        <v>5.024248827600096</v>
       </c>
       <c r="J21">
-        <v>5.630208988990881</v>
+        <v>13.15270297761512</v>
       </c>
       <c r="K21">
-        <v>26.15734382178188</v>
+        <v>26.72412292980602</v>
       </c>
       <c r="L21">
-        <v>5.553483149017169</v>
-      </c>
-      <c r="M21">
-        <v>19.4859906478376</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>8.71078559406873</v>
+      </c>
+      <c r="Q21">
+        <v>25.52783566713273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>6.937343414685788</v>
+        <v>13.15726981531436</v>
       </c>
       <c r="D22">
-        <v>5.207763600382497</v>
+        <v>3.507894093966119</v>
       </c>
       <c r="E22">
-        <v>7.489009896618877</v>
+        <v>15.15890020411053</v>
       </c>
       <c r="F22">
-        <v>29.97232659773334</v>
+        <v>33.91363167776786</v>
       </c>
       <c r="G22">
-        <v>38.82066459359877</v>
+        <v>50.02178841967457</v>
       </c>
       <c r="H22">
-        <v>11.9830681861847</v>
+        <v>4.15158178739583</v>
       </c>
       <c r="I22">
-        <v>22.02751311648968</v>
+        <v>5.192346011402053</v>
       </c>
       <c r="J22">
-        <v>5.582509745006496</v>
+        <v>13.48492068874801</v>
       </c>
       <c r="K22">
-        <v>27.13203349212546</v>
+        <v>27.5188472810799</v>
       </c>
       <c r="L22">
-        <v>5.519689821049677</v>
-      </c>
-      <c r="M22">
-        <v>20.08885825896087</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>8.890336984964319</v>
+      </c>
+      <c r="Q22">
+        <v>26.31387232908524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>6.84534993074899</v>
+        <v>13.01529706160531</v>
       </c>
       <c r="D23">
-        <v>5.142770525899133</v>
+        <v>3.483206034192202</v>
       </c>
       <c r="E23">
-        <v>7.468418057666963</v>
+        <v>14.97055273994312</v>
       </c>
       <c r="F23">
-        <v>29.77919154540982</v>
+        <v>33.36377163163136</v>
       </c>
       <c r="G23">
-        <v>38.49217633917237</v>
+        <v>49.16898920363079</v>
       </c>
       <c r="H23">
-        <v>11.98320011407357</v>
+        <v>4.051184603737537</v>
       </c>
       <c r="I23">
-        <v>21.92508687580479</v>
+        <v>5.102793144556166</v>
       </c>
       <c r="J23">
-        <v>5.607856941358784</v>
+        <v>13.31914971272034</v>
       </c>
       <c r="K23">
-        <v>26.61536641618777</v>
+        <v>27.12995664386121</v>
       </c>
       <c r="L23">
-        <v>5.537624455610975</v>
-      </c>
-      <c r="M23">
-        <v>19.76862320155161</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>8.793326513633549</v>
+      </c>
+      <c r="Q23">
+        <v>25.92051045826373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>6.49051120179737</v>
+        <v>12.41037691008521</v>
       </c>
       <c r="D24">
-        <v>4.891706650544142</v>
+        <v>3.389264649975988</v>
       </c>
       <c r="E24">
-        <v>7.395820158955761</v>
+        <v>14.21458880699709</v>
       </c>
       <c r="F24">
-        <v>29.12487524768498</v>
+        <v>31.16437828527395</v>
       </c>
       <c r="G24">
-        <v>37.3714219737848</v>
+        <v>45.734271409764</v>
       </c>
       <c r="H24">
-        <v>12.01414706113787</v>
+        <v>3.660016216303351</v>
       </c>
       <c r="I24">
-        <v>21.59540595659491</v>
+        <v>4.757012695645421</v>
       </c>
       <c r="J24">
-        <v>5.706303688399121</v>
+        <v>12.65926165052872</v>
       </c>
       <c r="K24">
-        <v>24.57995199392969</v>
+        <v>25.55491869254977</v>
       </c>
       <c r="L24">
-        <v>5.607784843056886</v>
-      </c>
-      <c r="M24">
-        <v>18.52242733191837</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>8.419556487898067</v>
+      </c>
+      <c r="Q24">
+        <v>24.34438004715056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>6.09507271980265</v>
+        <v>11.71558265857493</v>
       </c>
       <c r="D25">
-        <v>4.610986508784372</v>
+        <v>3.281810258083336</v>
       </c>
       <c r="E25">
-        <v>7.328581128646813</v>
+        <v>13.35000202368643</v>
       </c>
       <c r="F25">
-        <v>28.57295827014958</v>
+        <v>28.6400733292073</v>
       </c>
       <c r="G25">
-        <v>36.41024987497413</v>
+        <v>41.75992509299189</v>
       </c>
       <c r="H25">
-        <v>12.10555325904704</v>
+        <v>3.219867225387242</v>
       </c>
       <c r="I25">
-        <v>21.35423784931039</v>
+        <v>4.369544533349066</v>
       </c>
       <c r="J25">
-        <v>5.817821029694997</v>
+        <v>11.91877612904004</v>
       </c>
       <c r="K25">
-        <v>22.21172337791329</v>
+        <v>23.7548644430611</v>
       </c>
       <c r="L25">
-        <v>5.68828115526752</v>
-      </c>
-      <c r="M25">
-        <v>17.10883054593019</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
+        <v>7.9980721037935</v>
+      </c>
+      <c r="Q25">
+        <v>22.5456112103611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,989 +421,1139 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.24852140442997</v>
+        <v>9.634320514521812</v>
       </c>
       <c r="D2">
-        <v>3.19395137955062</v>
+        <v>3.319752877861872</v>
       </c>
       <c r="E2">
-        <v>12.7055610439122</v>
+        <v>11.98983629674365</v>
       </c>
       <c r="F2">
-        <v>26.73588939511731</v>
+        <v>25.17536432169039</v>
       </c>
       <c r="G2">
-        <v>38.74888950056024</v>
+        <v>35.49782565426239</v>
       </c>
       <c r="H2">
-        <v>2.883799783889629</v>
+        <v>2.762973681404521</v>
       </c>
       <c r="I2">
-        <v>4.071479902795383</v>
+        <v>3.936268045251597</v>
       </c>
       <c r="J2">
-        <v>11.38168822582402</v>
+        <v>11.4107463041096</v>
       </c>
       <c r="K2">
-        <v>22.44115156241734</v>
+        <v>20.6110232984203</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.5741976110524</v>
+      </c>
+      <c r="M2">
+        <v>13.54847405234897</v>
       </c>
       <c r="N2">
-        <v>7.66872789976309</v>
-      </c>
-      <c r="Q2">
-        <v>21.20970228602395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>7.751290960616436</v>
+      </c>
+      <c r="S2">
+        <v>19.89795323192783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10.86624957500908</v>
+        <v>9.398281009079128</v>
       </c>
       <c r="D3">
-        <v>3.13305243386133</v>
+        <v>3.235145881509222</v>
       </c>
       <c r="E3">
-        <v>12.22639962988714</v>
+        <v>11.58867538915832</v>
       </c>
       <c r="F3">
-        <v>25.32797384236754</v>
+        <v>23.93473106663354</v>
       </c>
       <c r="G3">
-        <v>36.49251569631485</v>
+        <v>33.49914783851198</v>
       </c>
       <c r="H3">
-        <v>2.642467429846984</v>
+        <v>2.547835404106916</v>
       </c>
       <c r="I3">
-        <v>3.85977403779155</v>
+        <v>3.755541272559943</v>
       </c>
       <c r="J3">
-        <v>10.98942479933913</v>
+        <v>11.07706484625255</v>
       </c>
       <c r="K3">
-        <v>21.45244591787265</v>
+        <v>19.81817439609533</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.25331325753248</v>
+      </c>
+      <c r="M3">
+        <v>12.61710187122457</v>
       </c>
       <c r="N3">
-        <v>7.439224539768249</v>
-      </c>
-      <c r="Q3">
-        <v>20.22095615960491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>7.520537905943929</v>
+      </c>
+      <c r="S3">
+        <v>19.05424785596493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10.61978442797439</v>
+        <v>9.244971795333235</v>
       </c>
       <c r="D4">
-        <v>3.094054442948869</v>
+        <v>3.181423302845658</v>
       </c>
       <c r="E4">
-        <v>11.92006285739553</v>
+        <v>11.332075649167</v>
       </c>
       <c r="F4">
-        <v>24.42734189127124</v>
+        <v>23.14124191655249</v>
       </c>
       <c r="G4">
-        <v>35.03792900608328</v>
+        <v>32.2110830611172</v>
       </c>
       <c r="H4">
-        <v>2.488649495604127</v>
+        <v>2.410529212454404</v>
       </c>
       <c r="I4">
-        <v>3.725139248009518</v>
+        <v>3.640568368670956</v>
       </c>
       <c r="J4">
-        <v>10.74296958878099</v>
+        <v>10.86614421385908</v>
       </c>
       <c r="K4">
-        <v>20.82188451962945</v>
+        <v>19.31235409416152</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>17.04297876901088</v>
+      </c>
+      <c r="M4">
+        <v>12.03048903139305</v>
       </c>
       <c r="N4">
-        <v>7.294354279113089</v>
-      </c>
-      <c r="Q4">
-        <v>19.59142863059252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>7.375165034421199</v>
+      </c>
+      <c r="S4">
+        <v>18.51718774407338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>10.50753952700111</v>
+        <v>9.173471982983669</v>
       </c>
       <c r="D5">
-        <v>3.078092653553911</v>
+        <v>3.15964833863469</v>
       </c>
       <c r="E5">
-        <v>11.78855470930991</v>
+        <v>11.22149988778209</v>
       </c>
       <c r="F5">
-        <v>24.04232970691588</v>
+        <v>22.80126294522758</v>
       </c>
       <c r="G5">
-        <v>34.41132067352534</v>
+        <v>31.65471710958152</v>
       </c>
       <c r="H5">
-        <v>2.423996043082135</v>
+        <v>2.352764227292739</v>
       </c>
       <c r="I5">
-        <v>3.668913223602047</v>
+        <v>3.592799082284165</v>
       </c>
       <c r="J5">
-        <v>10.63792497893888</v>
+        <v>10.77565103214995</v>
       </c>
       <c r="K5">
-        <v>20.54868315468952</v>
+        <v>19.09156827041347</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.94626044801253</v>
+      </c>
+      <c r="M5">
+        <v>11.78065671577771</v>
       </c>
       <c r="N5">
-        <v>7.234808995120447</v>
-      </c>
-      <c r="Q5">
-        <v>19.32172632537376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>7.315517062080001</v>
+      </c>
+      <c r="S5">
+        <v>18.28628098554774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>10.47783731729948</v>
+        <v>9.153033187395621</v>
       </c>
       <c r="D6">
-        <v>3.075831941198727</v>
+        <v>3.156695422613502</v>
       </c>
       <c r="E6">
-        <v>11.76200392660959</v>
+        <v>11.19872015663037</v>
       </c>
       <c r="F6">
-        <v>23.96655315676896</v>
+        <v>22.73339156445175</v>
       </c>
       <c r="G6">
-        <v>34.28566068520563</v>
+        <v>31.5412616367519</v>
       </c>
       <c r="H6">
-        <v>2.41252357792786</v>
+        <v>2.342500743087843</v>
       </c>
       <c r="I6">
-        <v>3.659443463470335</v>
+        <v>3.585120035228158</v>
       </c>
       <c r="J6">
-        <v>10.61633457724829</v>
+        <v>10.75672978571862</v>
       </c>
       <c r="K6">
-        <v>20.48999450877184</v>
+        <v>19.0422900021667</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.92064612495093</v>
+      </c>
+      <c r="M6">
+        <v>11.72946426624015</v>
       </c>
       <c r="N6">
-        <v>7.225410288617538</v>
-      </c>
-      <c r="Q6">
-        <v>19.26706870716387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>7.306139229370738</v>
+      </c>
+      <c r="S6">
+        <v>18.23848650248296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.5888404511338</v>
+        <v>9.223215206839537</v>
       </c>
       <c r="D7">
-        <v>3.094979527883211</v>
+        <v>3.184094208002385</v>
       </c>
       <c r="E7">
-        <v>11.90607189328337</v>
+        <v>11.31970729897183</v>
       </c>
       <c r="F7">
-        <v>24.39179762261626</v>
+        <v>23.08954755879372</v>
       </c>
       <c r="G7">
-        <v>34.97444216328597</v>
+        <v>32.25656401491219</v>
       </c>
       <c r="H7">
-        <v>2.48603176673982</v>
+        <v>2.407586408606812</v>
       </c>
       <c r="I7">
-        <v>3.723972077462185</v>
+        <v>3.639867230138669</v>
       </c>
       <c r="J7">
-        <v>10.73055173055159</v>
+        <v>10.79373581031935</v>
       </c>
       <c r="K7">
-        <v>20.78325169754905</v>
+        <v>19.26438858942472</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.00782591164648</v>
+      </c>
+      <c r="M7">
+        <v>11.99214680004836</v>
       </c>
       <c r="N7">
-        <v>7.295037501428554</v>
-      </c>
-      <c r="Q7">
-        <v>19.56210980467603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>7.375355023619972</v>
+      </c>
+      <c r="S7">
+        <v>18.47446541164966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>11.08169423362908</v>
+        <v>9.532295954068569</v>
       </c>
       <c r="D8">
-        <v>3.174830114907484</v>
+        <v>3.297094785802558</v>
       </c>
       <c r="E8">
-        <v>12.52746150502874</v>
+        <v>11.84123929335679</v>
       </c>
       <c r="F8">
-        <v>26.22035911228241</v>
+        <v>24.66243605320793</v>
       </c>
       <c r="G8">
-        <v>37.91745056346098</v>
+        <v>35.08546366905464</v>
       </c>
       <c r="H8">
-        <v>2.799520101191026</v>
+        <v>2.68606801540249</v>
       </c>
       <c r="I8">
-        <v>3.998594360147005</v>
+        <v>3.873226141596719</v>
       </c>
       <c r="J8">
-        <v>11.2336682596678</v>
+        <v>11.08915135528146</v>
       </c>
       <c r="K8">
-        <v>22.06132092209214</v>
+        <v>20.26271386113459</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.40790290309806</v>
+      </c>
+      <c r="M8">
+        <v>13.16879709425098</v>
       </c>
       <c r="N8">
-        <v>7.592369823180661</v>
-      </c>
-      <c r="Q8">
-        <v>20.84139725243992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>7.672755000484173</v>
+      </c>
+      <c r="S8">
+        <v>19.53315394322544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>12.00267694728413</v>
+        <v>10.10284347086698</v>
       </c>
       <c r="D9">
-        <v>3.316659481161609</v>
+        <v>3.497063907653176</v>
       </c>
       <c r="E9">
-        <v>13.66707675182331</v>
+        <v>12.79678214835542</v>
       </c>
       <c r="F9">
-        <v>29.55653998534231</v>
+        <v>27.59744525939004</v>
       </c>
       <c r="G9">
-        <v>43.21684979828005</v>
+        <v>39.83196568233394</v>
       </c>
       <c r="H9">
-        <v>3.373502727468932</v>
+        <v>3.196383620968098</v>
       </c>
       <c r="I9">
-        <v>4.502641807385578</v>
+        <v>4.301914699752936</v>
       </c>
       <c r="J9">
-        <v>12.18952295184727</v>
+        <v>11.85794639858631</v>
       </c>
       <c r="K9">
-        <v>24.42894850098866</v>
+        <v>22.16046100228015</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18.16033160850438</v>
+      </c>
+      <c r="M9">
+        <v>15.41210914039779</v>
       </c>
       <c r="N9">
-        <v>8.139894937650331</v>
-      </c>
-      <c r="Q9">
-        <v>23.20414606212519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>8.224117590336594</v>
+      </c>
+      <c r="S9">
+        <v>21.54553370086365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>12.51488738604024</v>
+        <v>10.42206456876092</v>
       </c>
       <c r="D10">
-        <v>3.420640665717354</v>
+        <v>3.652353933271808</v>
       </c>
       <c r="E10">
-        <v>14.24235013791327</v>
+        <v>13.26245525287785</v>
       </c>
       <c r="F10">
-        <v>31.68117102898491</v>
+        <v>29.3817661102</v>
       </c>
       <c r="G10">
-        <v>46.52384861095765</v>
+        <v>43.27765131314906</v>
       </c>
       <c r="H10">
-        <v>3.751835092144974</v>
+        <v>3.528859193166751</v>
       </c>
       <c r="I10">
-        <v>4.842946811960676</v>
+        <v>4.588853495768801</v>
       </c>
       <c r="J10">
-        <v>12.80506367254395</v>
+        <v>12.03725000856207</v>
       </c>
       <c r="K10">
-        <v>25.89443086004011</v>
+        <v>23.26734877218263</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>18.51856214630961</v>
+      </c>
+      <c r="M10">
+        <v>16.8053905114186</v>
       </c>
       <c r="N10">
-        <v>8.405133752390661</v>
-      </c>
-      <c r="Q10">
-        <v>24.70045731823411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>8.486747728112098</v>
+      </c>
+      <c r="S10">
+        <v>22.74455025488657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>11.93342797333563</v>
+        <v>10.05673156241386</v>
       </c>
       <c r="D11">
-        <v>3.537527101812317</v>
+        <v>3.830808646962081</v>
       </c>
       <c r="E11">
-        <v>12.87611500384533</v>
+        <v>11.96469013924109</v>
       </c>
       <c r="F11">
-        <v>31.54483957020025</v>
+        <v>29.07056260400598</v>
       </c>
       <c r="G11">
-        <v>46.07477214370805</v>
+        <v>43.90397093139287</v>
       </c>
       <c r="H11">
-        <v>4.282570548306412</v>
+        <v>4.07869893954264</v>
       </c>
       <c r="I11">
-        <v>4.917004096553145</v>
+        <v>4.650176243236133</v>
       </c>
       <c r="J11">
-        <v>12.66301873135498</v>
+        <v>11.24757079038791</v>
       </c>
       <c r="K11">
-        <v>25.385126643566</v>
+        <v>22.65354861985646</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.88435183605209</v>
+      </c>
+      <c r="M11">
+        <v>16.55069427821707</v>
       </c>
       <c r="N11">
-        <v>7.574085770430629</v>
-      </c>
-      <c r="Q11">
-        <v>24.43530457409987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>7.617547837871576</v>
+      </c>
+      <c r="S11">
+        <v>22.33074685296689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>11.39793216379311</v>
+        <v>9.738964780106603</v>
       </c>
       <c r="D12">
-        <v>3.625012207355207</v>
+        <v>3.952690105353784</v>
       </c>
       <c r="E12">
-        <v>11.70461346447542</v>
+        <v>10.8861948175905</v>
       </c>
       <c r="F12">
-        <v>31.01776184761524</v>
+        <v>28.51542522361378</v>
       </c>
       <c r="G12">
-        <v>45.06514207614269</v>
+        <v>43.48418573447641</v>
       </c>
       <c r="H12">
-        <v>5.199051735662795</v>
+        <v>5.034715144492236</v>
       </c>
       <c r="I12">
-        <v>4.914573293305828</v>
+        <v>4.647471157740674</v>
       </c>
       <c r="J12">
-        <v>12.42337958013336</v>
+        <v>10.74573888336903</v>
       </c>
       <c r="K12">
-        <v>24.68345284453343</v>
+        <v>21.97230143393885</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>17.32800494568017</v>
+      </c>
+      <c r="M12">
+        <v>16.09831843374222</v>
       </c>
       <c r="N12">
-        <v>6.892138104918671</v>
-      </c>
-      <c r="Q12">
-        <v>23.92330945167889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>6.899165904056007</v>
+      </c>
+      <c r="S12">
+        <v>21.79768738161895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.82143496109831</v>
+        <v>9.404905881755628</v>
       </c>
       <c r="D13">
-        <v>3.696074922632816</v>
+        <v>4.034545307094621</v>
       </c>
       <c r="E13">
-        <v>10.60787416386291</v>
+        <v>9.91447976242717</v>
       </c>
       <c r="F13">
-        <v>30.10355506075284</v>
+        <v>27.72151171500006</v>
       </c>
       <c r="G13">
-        <v>43.46335855995986</v>
+        <v>41.93882511520587</v>
       </c>
       <c r="H13">
-        <v>6.27987647930391</v>
+        <v>6.153573288294733</v>
       </c>
       <c r="I13">
-        <v>4.852812939589128</v>
+        <v>4.597370776908566</v>
       </c>
       <c r="J13">
-        <v>12.07405581831348</v>
+        <v>10.5334243970985</v>
       </c>
       <c r="K13">
-        <v>23.72895032276148</v>
+        <v>21.16364093608063</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>16.77025172135957</v>
+      </c>
+      <c r="M13">
+        <v>15.43995135638483</v>
       </c>
       <c r="N13">
-        <v>6.303946141818294</v>
-      </c>
-      <c r="Q13">
-        <v>23.14328254356125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>6.274381066435124</v>
+      </c>
+      <c r="S13">
+        <v>21.12611962761243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10.39712186363705</v>
+        <v>9.16761998574426</v>
       </c>
       <c r="D14">
-        <v>3.740054003595847</v>
+        <v>4.074352110019155</v>
       </c>
       <c r="E14">
-        <v>9.90750156228739</v>
+        <v>9.323110728784624</v>
       </c>
       <c r="F14">
-        <v>29.26891816765999</v>
+        <v>27.03847361983078</v>
       </c>
       <c r="G14">
-        <v>42.03828192792025</v>
+        <v>40.32037481560162</v>
       </c>
       <c r="H14">
-        <v>7.101608575928932</v>
+        <v>6.998259510786182</v>
       </c>
       <c r="I14">
-        <v>4.783307060320358</v>
+        <v>4.541582485498418</v>
       </c>
       <c r="J14">
-        <v>11.77390254580529</v>
+        <v>10.50161814246662</v>
       </c>
       <c r="K14">
-        <v>22.92732215887367</v>
+        <v>20.52187814821609</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>16.36604616074735</v>
+      </c>
+      <c r="M14">
+        <v>14.87054215647453</v>
       </c>
       <c r="N14">
-        <v>5.966216286081708</v>
-      </c>
-      <c r="Q14">
-        <v>22.46024285574266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5.910796333221448</v>
+      </c>
+      <c r="S14">
+        <v>20.57777986177944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>10.27448411636344</v>
+        <v>9.098551521255731</v>
       </c>
       <c r="D15">
-        <v>3.746680388731239</v>
+        <v>4.07534964984263</v>
       </c>
       <c r="E15">
-        <v>9.739863952235636</v>
+        <v>9.187561009707187</v>
       </c>
       <c r="F15">
-        <v>28.97145882896287</v>
+        <v>26.80766568125809</v>
       </c>
       <c r="G15">
-        <v>41.54340459643119</v>
+        <v>39.67914181366664</v>
       </c>
       <c r="H15">
-        <v>7.28874549323718</v>
+        <v>7.191436717017943</v>
       </c>
       <c r="I15">
-        <v>4.753115178756987</v>
+        <v>4.51776842471137</v>
       </c>
       <c r="J15">
-        <v>11.67385075596465</v>
+        <v>10.541014850988</v>
       </c>
       <c r="K15">
-        <v>22.66607051819729</v>
+        <v>20.32518782827612</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>16.25699963593495</v>
+      </c>
+      <c r="M15">
+        <v>14.67714636877933</v>
       </c>
       <c r="N15">
-        <v>5.894128831375095</v>
-      </c>
-      <c r="Q15">
-        <v>22.22745064752763</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>5.833495432738454</v>
+      </c>
+      <c r="S15">
+        <v>20.40367022491579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>10.14182006222741</v>
+        <v>8.99905803633898</v>
       </c>
       <c r="D16">
-        <v>3.689254399496923</v>
+        <v>3.978234710001966</v>
       </c>
       <c r="E16">
-        <v>9.671205167946946</v>
+        <v>9.144263571253948</v>
       </c>
       <c r="F16">
-        <v>28.19407502196356</v>
+        <v>26.28282098254672</v>
       </c>
       <c r="G16">
-        <v>40.34858762301528</v>
+        <v>37.67081093622266</v>
       </c>
       <c r="H16">
-        <v>7.005187665837694</v>
+        <v>6.91812438355655</v>
       </c>
       <c r="I16">
-        <v>4.621287417026197</v>
+        <v>4.410813463504244</v>
       </c>
       <c r="J16">
-        <v>11.46349671063801</v>
+        <v>10.94740775966361</v>
       </c>
       <c r="K16">
-        <v>22.17433049322842</v>
+        <v>20.05030714293434</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>16.23222550487509</v>
+      </c>
+      <c r="M16">
+        <v>14.24419042017103</v>
       </c>
       <c r="N16">
-        <v>5.884216371984134</v>
-      </c>
-      <c r="Q16">
-        <v>21.69893285505817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>5.836248897026143</v>
+      </c>
+      <c r="S16">
+        <v>20.09416052730531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>10.26377753016434</v>
+        <v>9.04464679255179</v>
       </c>
       <c r="D17">
-        <v>3.620296826362049</v>
+        <v>3.88518375185646</v>
       </c>
       <c r="E17">
-        <v>9.975658548521677</v>
+        <v>9.405743280475717</v>
       </c>
       <c r="F17">
-        <v>28.05324313233872</v>
+        <v>26.23184754352669</v>
       </c>
       <c r="G17">
-        <v>40.21243105714434</v>
+        <v>37.14150128307597</v>
       </c>
       <c r="H17">
-        <v>6.300795226495949</v>
+        <v>6.210858188624834</v>
       </c>
       <c r="I17">
-        <v>4.556603214894733</v>
+        <v>4.357452250069772</v>
       </c>
       <c r="J17">
-        <v>11.46545907330858</v>
+        <v>11.20433080325592</v>
       </c>
       <c r="K17">
-        <v>22.23487379683333</v>
+        <v>20.17560391774028</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>16.42625660073201</v>
+      </c>
+      <c r="M17">
+        <v>14.21091685562975</v>
       </c>
       <c r="N17">
-        <v>6.042085074440299</v>
-      </c>
-      <c r="Q17">
-        <v>21.66672129151393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>6.017218576947937</v>
+      </c>
+      <c r="S17">
+        <v>20.13818963233537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>10.6576539632107</v>
+        <v>9.254210347124536</v>
       </c>
       <c r="D18">
-        <v>3.536979373529077</v>
+        <v>3.782988845216163</v>
       </c>
       <c r="E18">
-        <v>10.7400164457929</v>
+        <v>10.07358417982017</v>
       </c>
       <c r="F18">
-        <v>28.47150418040256</v>
+        <v>26.63855225116165</v>
       </c>
       <c r="G18">
-        <v>41.02252592902388</v>
+        <v>37.69950844076384</v>
       </c>
       <c r="H18">
-        <v>5.227575569708105</v>
+        <v>5.119255505525699</v>
       </c>
       <c r="I18">
-        <v>4.545075132771865</v>
+        <v>4.346150503663225</v>
       </c>
       <c r="J18">
-        <v>11.65784698929284</v>
+        <v>11.47785684597684</v>
       </c>
       <c r="K18">
-        <v>22.80442529256322</v>
+        <v>20.70546232112092</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.86564802252873</v>
+      </c>
+      <c r="M18">
+        <v>14.55488476950901</v>
       </c>
       <c r="N18">
-        <v>6.439957798859612</v>
-      </c>
-      <c r="Q18">
-        <v>22.07851316474361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>6.448163731603993</v>
+      </c>
+      <c r="S18">
+        <v>20.53693179230444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>11.22597714100323</v>
+        <v>9.587622750994376</v>
       </c>
       <c r="D19">
-        <v>3.460588148562358</v>
+        <v>3.690268984624495</v>
       </c>
       <c r="E19">
-        <v>11.91004887813839</v>
+        <v>11.12902112659012</v>
       </c>
       <c r="F19">
-        <v>29.25022593316576</v>
+        <v>27.3404109875346</v>
       </c>
       <c r="G19">
-        <v>42.43059445907284</v>
+        <v>38.91479508281258</v>
       </c>
       <c r="H19">
-        <v>4.158638550234303</v>
+        <v>4.013059262767057</v>
       </c>
       <c r="I19">
-        <v>4.58329736869704</v>
+        <v>4.377749122133786</v>
       </c>
       <c r="J19">
-        <v>11.96690614697604</v>
+        <v>11.77158348260723</v>
       </c>
       <c r="K19">
-        <v>23.67518986807274</v>
+        <v>21.46875708762719</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17.43445325913083</v>
+      </c>
+      <c r="M19">
+        <v>15.13347997299336</v>
       </c>
       <c r="N19">
-        <v>7.093536255892301</v>
-      </c>
-      <c r="Q19">
-        <v>22.7665291047869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>7.137088042841541</v>
+      </c>
+      <c r="S19">
+        <v>21.15478615813984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>12.3005494528993</v>
+        <v>10.27200077456302</v>
       </c>
       <c r="D20">
-        <v>3.398039786798272</v>
+        <v>3.614895162825168</v>
       </c>
       <c r="E20">
-        <v>14.05355910085598</v>
+        <v>13.10209277769295</v>
       </c>
       <c r="F20">
-        <v>31.05381664347507</v>
+        <v>28.89609390364707</v>
       </c>
       <c r="G20">
-        <v>45.53193902628518</v>
+        <v>41.95435330714326</v>
       </c>
       <c r="H20">
-        <v>3.647560093732779</v>
+        <v>3.438706472847173</v>
       </c>
       <c r="I20">
-        <v>4.75463747500353</v>
+        <v>4.519531352739836</v>
       </c>
       <c r="J20">
-        <v>12.61402055114152</v>
+        <v>12.15248437111083</v>
       </c>
       <c r="K20">
-        <v>25.42111173825935</v>
+        <v>22.92646935088581</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18.38684452899489</v>
+      </c>
+      <c r="M20">
+        <v>16.40251934537519</v>
       </c>
       <c r="N20">
-        <v>8.335535040258126</v>
-      </c>
-      <c r="Q20">
-        <v>24.24476929921335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>8.419646963666469</v>
+      </c>
+      <c r="S20">
+        <v>22.41262448017285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>12.83487742334484</v>
+        <v>10.64684469235731</v>
       </c>
       <c r="D21">
-        <v>3.464137993677606</v>
+        <v>3.735974144421063</v>
       </c>
       <c r="E21">
-        <v>14.78179866341078</v>
+        <v>13.74306760007668</v>
       </c>
       <c r="F21">
-        <v>32.82545419677322</v>
+        <v>30.13249665399881</v>
       </c>
       <c r="G21">
-        <v>48.32166581062315</v>
+        <v>46.34606354104513</v>
       </c>
       <c r="H21">
-        <v>3.959462237940039</v>
+        <v>3.70494390019729</v>
       </c>
       <c r="I21">
-        <v>5.024248827600096</v>
+        <v>4.737161715428607</v>
       </c>
       <c r="J21">
-        <v>13.15270297761512</v>
+        <v>11.37468246292652</v>
       </c>
       <c r="K21">
-        <v>26.72412292980602</v>
+        <v>23.75427898500399</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>18.65344938683486</v>
+      </c>
+      <c r="M21">
+        <v>17.44321353619103</v>
       </c>
       <c r="N21">
-        <v>8.71078559406873</v>
-      </c>
-      <c r="Q21">
-        <v>25.52783566713273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>8.789553460076114</v>
+      </c>
+      <c r="S21">
+        <v>23.22834161939822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>13.15726981531436</v>
+        <v>10.8816932212645</v>
       </c>
       <c r="D22">
-        <v>3.507894093966119</v>
+        <v>3.817813652588883</v>
       </c>
       <c r="E22">
-        <v>15.15890020411053</v>
+        <v>14.07210353018139</v>
       </c>
       <c r="F22">
-        <v>33.91363167776786</v>
+        <v>30.8702888539699</v>
       </c>
       <c r="G22">
-        <v>50.02178841967457</v>
+        <v>49.16402963285068</v>
       </c>
       <c r="H22">
-        <v>4.15158178739583</v>
+        <v>3.868264705892589</v>
       </c>
       <c r="I22">
-        <v>5.192346011402053</v>
+        <v>4.871302049045479</v>
       </c>
       <c r="J22">
-        <v>13.48492068874801</v>
+        <v>10.80675988391461</v>
       </c>
       <c r="K22">
-        <v>27.5188472810799</v>
+        <v>24.24165497867176</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>18.79309099234958</v>
+      </c>
+      <c r="M22">
+        <v>18.0736167269126</v>
       </c>
       <c r="N22">
-        <v>8.890336984964319</v>
-      </c>
-      <c r="Q22">
-        <v>26.31387232908524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>8.96357107287648</v>
+      </c>
+      <c r="S22">
+        <v>23.70714002333922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>13.01529706160531</v>
+        <v>10.77387428422212</v>
       </c>
       <c r="D23">
-        <v>3.483206034192202</v>
+        <v>3.768750352292805</v>
       </c>
       <c r="E23">
-        <v>14.97055273994312</v>
+        <v>13.90663924803178</v>
       </c>
       <c r="F23">
-        <v>33.36377163163136</v>
+        <v>30.54168368985517</v>
       </c>
       <c r="G23">
-        <v>49.16898920363079</v>
+        <v>47.50624942617944</v>
       </c>
       <c r="H23">
-        <v>4.051184603737537</v>
+        <v>3.783971845851079</v>
       </c>
       <c r="I23">
-        <v>5.102793144556166</v>
+        <v>4.799571634074114</v>
       </c>
       <c r="J23">
-        <v>13.31914971272034</v>
+        <v>11.25049408762373</v>
       </c>
       <c r="K23">
-        <v>27.12995664386121</v>
+        <v>24.0397058486316</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.75985084688445</v>
+      </c>
+      <c r="M23">
+        <v>17.78342451831008</v>
       </c>
       <c r="N23">
-        <v>8.793326513633549</v>
-      </c>
-      <c r="Q23">
-        <v>25.92051045826373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>8.870520685285072</v>
+      </c>
+      <c r="S23">
+        <v>23.50757569696119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.41037691008521</v>
+        <v>10.34861311688153</v>
       </c>
       <c r="D24">
-        <v>3.389264649975988</v>
+        <v>3.601738620335889</v>
       </c>
       <c r="E24">
-        <v>14.21458880699709</v>
+        <v>13.25409294588915</v>
       </c>
       <c r="F24">
-        <v>31.16437828527395</v>
+        <v>29.00103184435153</v>
       </c>
       <c r="G24">
-        <v>45.734271409764</v>
+        <v>42.12522706320191</v>
       </c>
       <c r="H24">
-        <v>3.660016216303351</v>
+        <v>3.45012143596617</v>
       </c>
       <c r="I24">
-        <v>4.757012695645421</v>
+        <v>4.519293210957597</v>
       </c>
       <c r="J24">
-        <v>12.65926165052872</v>
+        <v>12.20336277096273</v>
       </c>
       <c r="K24">
-        <v>25.55491869254977</v>
+        <v>23.05029504959944</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18.48185463051066</v>
+      </c>
+      <c r="M24">
+        <v>16.49354256080396</v>
       </c>
       <c r="N24">
-        <v>8.419556487898067</v>
-      </c>
-      <c r="Q24">
-        <v>24.34438004715056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>8.506164540651589</v>
+      </c>
+      <c r="S24">
+        <v>22.50684691339464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>11.71558265857493</v>
+        <v>9.916279153471704</v>
       </c>
       <c r="D25">
-        <v>3.281810258083336</v>
+        <v>3.446528841423854</v>
       </c>
       <c r="E25">
-        <v>13.35000202368643</v>
+        <v>12.52807154898516</v>
       </c>
       <c r="F25">
-        <v>28.6400733292073</v>
+        <v>26.80890312615272</v>
       </c>
       <c r="G25">
-        <v>41.75992509299189</v>
+        <v>38.38987764684318</v>
       </c>
       <c r="H25">
-        <v>3.219867225387242</v>
+        <v>3.060672677133256</v>
       </c>
       <c r="I25">
-        <v>4.369544533349066</v>
+        <v>4.191267009202408</v>
       </c>
       <c r="J25">
-        <v>11.91877612904004</v>
+        <v>11.71850310468736</v>
       </c>
       <c r="K25">
-        <v>23.7548644430611</v>
+        <v>21.62664154253798</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.93997614491941</v>
+      </c>
+      <c r="M25">
+        <v>14.79315550227074</v>
       </c>
       <c r="N25">
-        <v>7.9980721037935</v>
-      </c>
-      <c r="Q25">
-        <v>22.5456112103611</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>8.082017570904318</v>
+      </c>
+      <c r="S25">
+        <v>20.99883112718287</v>
       </c>
     </row>
   </sheetData>
